--- a/db/real_trade_db - Copy.xlsx
+++ b/db/real_trade_db - Copy.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA343"/>
+  <dimension ref="A1:AA360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26817,28 +26817,30 @@
         <v>1.02</v>
       </c>
       <c r="H279" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>45720.29792387731</v>
+      </c>
+      <c r="I279" t="n">
+        <v>302.86</v>
+      </c>
       <c r="J279" t="n">
-        <v>0</v>
+        <v>3331.46</v>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L279" t="n">
         <v>11</v>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N279" t="n">
         <v>1.05</v>
       </c>
       <c r="O279" t="n">
-        <v>1.005</v>
+        <v>1.01</v>
       </c>
       <c r="P279" t="n">
         <v>1.0065</v>
@@ -26847,7 +26849,7 @@
         <v>0.15</v>
       </c>
       <c r="R279" t="n">
-        <v>0</v>
+        <v>30.86</v>
       </c>
       <c r="S279" t="inlineStr">
         <is>
@@ -26877,7 +26879,11 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr">
+        <is>
+          <t>FA1A51CAB433C4A000</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -27859,21 +27865,9 @@
           <t>FA19DCF9648404A000</t>
         </is>
       </c>
-      <c r="T290" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U290" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V290" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="T290" t="inlineStr"/>
+      <c r="U290" t="inlineStr"/>
+      <c r="V290" t="inlineStr"/>
       <c r="W290" t="inlineStr">
         <is>
           <t>FA19DE72040F04A000</t>
@@ -27894,36 +27888,30 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA290" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="AA290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="D291" s="2" t="n">
-        <v>45630.95920801707</v>
+        <v>45630.95957414352</v>
       </c>
       <c r="E291" t="n">
-        <v>93.38</v>
+        <v>162.95</v>
       </c>
       <c r="F291" t="n">
-        <v>3268.3</v>
-      </c>
-      <c r="G291" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3259</v>
+      </c>
+      <c r="G291" t="inlineStr"/>
       <c r="H291" s="2" t="n">
         <v>25934</v>
       </c>
@@ -27935,11 +27923,11 @@
         <v>0</v>
       </c>
       <c r="L291" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>bought</t>
         </is>
       </c>
       <c r="N291" t="n">
@@ -27952,44 +27940,32 @@
         <v>1.006</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R291" t="n">
         <v>0</v>
       </c>
       <c r="S291" t="inlineStr">
         <is>
-          <t>FA19DF3FAF5604A000</t>
+          <t>FA19DF3FCE3904A000</t>
         </is>
       </c>
       <c r="T291" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U291" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V291" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W291" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA19E05F074504A000</t>
+        </is>
+      </c>
+      <c r="U291" t="inlineStr"/>
+      <c r="V291" t="inlineStr"/>
+      <c r="W291" t="inlineStr"/>
       <c r="X291" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y291" t="inlineStr">
         <is>
-          <t>mv :-1.27, mv_2m:-0.44,      mv_5m : -0.61, mv_30m : -0.75, mv_60m: -1.41</t>
+          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.79, mv_30m : -2.81, mv_60m: -2.35</t>
         </is>
       </c>
       <c r="Z291" t="inlineStr">
@@ -27997,59 +27973,55 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA291" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>666</v>
+        <v>691</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="D292" s="2" t="n">
-        <v>45630.95930282646</v>
+        <v>45720.86263383102</v>
       </c>
       <c r="E292" t="n">
-        <v>149.96</v>
+        <v>248.56</v>
       </c>
       <c r="F292" t="n">
-        <v>3299.12</v>
-      </c>
-      <c r="G292" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3231.28</v>
+      </c>
+      <c r="G292" t="inlineStr"/>
       <c r="H292" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>45721.3272547801</v>
+      </c>
+      <c r="I292" t="n">
+        <v>250.18</v>
+      </c>
       <c r="J292" t="n">
-        <v>0</v>
+        <v>3252.34</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L292" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N292" t="n">
         <v>1.05</v>
       </c>
       <c r="O292" t="n">
-        <v>1.005</v>
+        <v>1.0065</v>
       </c>
       <c r="P292" t="n">
         <v>1.006</v>
@@ -28057,34 +28029,20 @@
       <c r="Q292" t="n">
         <v>0.45</v>
       </c>
-      <c r="R292" t="n">
-        <v>0</v>
-      </c>
+      <c r="R292" t="inlineStr"/>
       <c r="S292" t="inlineStr">
         <is>
-          <t>FA19DF3FB754FB2000</t>
+          <t>FA1A52FEF0BFBB2000</t>
         </is>
       </c>
       <c r="T292" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U292" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V292" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W292" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A534A5302FB2000</t>
+        </is>
+      </c>
+      <c r="U292" t="inlineStr"/>
+      <c r="V292" t="inlineStr"/>
+      <c r="W292" t="inlineStr"/>
       <c r="X292" t="inlineStr">
         <is>
           <t>before_market_open_2</t>
@@ -28092,7 +28050,7 @@
       </c>
       <c r="Y292" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.47,      mv_5m : -0.76, mv_30m : -1.93, mv_60m: -4.50</t>
+          <t>mv :-1.08, mv_2m:1.62,      mv_5m : -0.27, mv_30m : -0.24, mv_60m: 10.68</t>
         </is>
       </c>
       <c r="Z292" t="inlineStr">
@@ -28102,7 +28060,7 @@
       </c>
       <c r="AA292" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A53910C9644A000</t>
         </is>
       </c>
     </row>
@@ -28111,41 +28069,43 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>667</v>
+        <v>960</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="D293" s="2" t="n">
-        <v>45630.95935628261</v>
+        <v>45721.83063457176</v>
       </c>
       <c r="E293" t="n">
-        <v>275.55</v>
+        <v>137.73</v>
       </c>
       <c r="F293" t="n">
-        <v>3031.05</v>
+        <v>3167.79</v>
       </c>
       <c r="G293" t="n">
-        <v>1.111</v>
+        <v>1.06</v>
       </c>
       <c r="H293" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>45723.99273387731</v>
+      </c>
+      <c r="I293" t="n">
+        <v>138.26</v>
+      </c>
       <c r="J293" t="n">
-        <v>0</v>
+        <v>3179.98</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L293" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N293" t="n">
@@ -28161,33 +28121,21 @@
         <v>0.45</v>
       </c>
       <c r="R293" t="n">
-        <v>0</v>
+        <v>9.969999999999599</v>
       </c>
       <c r="S293" t="inlineStr">
         <is>
-          <t>FA19DF3FBBDD3B2000</t>
+          <t>FA1A543DFC0844A000</t>
         </is>
       </c>
       <c r="T293" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A548DEDA4BB2000</t>
+        </is>
+      </c>
+      <c r="U293" t="inlineStr"/>
+      <c r="V293" t="inlineStr"/>
+      <c r="W293" t="inlineStr"/>
       <c r="X293" t="inlineStr">
         <is>
           <t>before_market_open_2</t>
@@ -28195,7 +28143,7 @@
       </c>
       <c r="Y293" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.47,      mv_5m : -0.58, mv_30m : -1.49, mv_60m: -1.88</t>
+          <t>mv :-1.00, mv_2m:1.51,      mv_5m : -0.07, mv_30m : -0.59, mv_60m: -23.36</t>
         </is>
       </c>
       <c r="Z293" t="inlineStr">
@@ -28203,102 +28151,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA293" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>668</v>
+        <v>1828</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="D294" s="2" t="n">
-        <v>45630.95951299764</v>
+        <v>45724.19343666667</v>
       </c>
       <c r="E294" t="n">
-        <v>179.8</v>
+        <v>53.345</v>
       </c>
       <c r="F294" t="n">
-        <v>3236.4</v>
+        <v>3254.045</v>
       </c>
       <c r="G294" t="n">
-        <v>1.111</v>
+        <v>1.17</v>
       </c>
       <c r="H294" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>45724.19625023148</v>
+      </c>
+      <c r="I294" t="n">
+        <v>53.59</v>
+      </c>
       <c r="J294" t="n">
-        <v>0</v>
+        <v>3268.99</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L294" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N294" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O294" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P294" t="n">
         <v>1.006</v>
       </c>
       <c r="Q294" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R294" t="n">
-        <v>0</v>
+        <v>12.50500000000016</v>
       </c>
       <c r="S294" t="inlineStr">
         <is>
-          <t>FA19DF3FC9107B2000</t>
-        </is>
-      </c>
-      <c r="T294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5748BDA584A000</t>
+        </is>
+      </c>
+      <c r="T294" t="inlineStr"/>
+      <c r="U294" t="inlineStr"/>
+      <c r="V294" t="inlineStr"/>
       <c r="W294" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5749E09C84A000</t>
         </is>
       </c>
       <c r="X294" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y294" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.59, mv_30m : -3.06, mv_60m: -2.16</t>
+          <t>mv :9.17, mv_2m:3.78,      mv_5m : 8.34, mv_30m : 19.96, mv_60m: 17.91</t>
         </is>
       </c>
       <c r="Z294" t="inlineStr">
@@ -28306,100 +28240,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA294" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>669</v>
+        <v>1830</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>SHW</t>
         </is>
       </c>
       <c r="D295" s="2" t="n">
-        <v>45630.95957413988</v>
+        <v>45724.21289275463</v>
       </c>
       <c r="E295" t="n">
-        <v>162.95</v>
+        <v>362.52</v>
       </c>
       <c r="F295" t="n">
-        <v>3259</v>
-      </c>
-      <c r="G295" t="inlineStr"/>
+        <v>3262.68</v>
+      </c>
+      <c r="G295" t="n">
+        <v>1.02</v>
+      </c>
       <c r="H295" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>45724.26417458333</v>
+      </c>
+      <c r="I295" t="n">
+        <v>363.89</v>
+      </c>
       <c r="J295" t="n">
-        <v>0</v>
+        <v>3275.01</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L295" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M295" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N295" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O295" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P295" t="n">
         <v>1.006</v>
       </c>
       <c r="Q295" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R295" t="n">
-        <v>0</v>
+        <v>10.18999999999993</v>
       </c>
       <c r="S295" t="inlineStr">
         <is>
-          <t>FA19DF3FCE3904A000</t>
-        </is>
-      </c>
-      <c r="T295" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U295" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V295" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A574F27503B2000</t>
+        </is>
+      </c>
+      <c r="T295" t="inlineStr"/>
+      <c r="U295" t="inlineStr"/>
+      <c r="V295" t="inlineStr"/>
       <c r="W295" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A575C74BDBB2000</t>
         </is>
       </c>
       <c r="X295" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y295" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.79, mv_30m : -2.81, mv_60m: -2.35</t>
+          <t>mv :12.44, mv_2m:0.96,      mv_5m : 2.44, mv_30m : 4.50, mv_60m: 8.14</t>
         </is>
       </c>
       <c r="Z295" t="inlineStr">
@@ -28407,102 +28329,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA295" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>670</v>
+        <v>1831</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="D296" s="2" t="n">
-        <v>45630.95963769984</v>
+        <v>45724.26974916667</v>
       </c>
       <c r="E296" t="n">
-        <v>157.87</v>
+        <v>432.19</v>
       </c>
       <c r="F296" t="n">
-        <v>3157.4</v>
+        <v>3025.33</v>
       </c>
       <c r="G296" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H296" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>45724.31180659722</v>
+      </c>
+      <c r="I296" t="n">
+        <v>433.05</v>
+      </c>
       <c r="J296" t="n">
-        <v>0</v>
+        <v>3031.35</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L296" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N296" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O296" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P296" t="n">
         <v>1.006</v>
       </c>
       <c r="Q296" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R296" t="n">
-        <v>0</v>
+        <v>3.909999999999982</v>
       </c>
       <c r="S296" t="inlineStr">
         <is>
-          <t>FA19DF3FD39644A000</t>
-        </is>
-      </c>
-      <c r="T296" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U296" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V296" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5761E48544A000</t>
+        </is>
+      </c>
+      <c r="T296" t="inlineStr"/>
+      <c r="U296" t="inlineStr"/>
+      <c r="V296" t="inlineStr"/>
       <c r="W296" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A576CF70604A000</t>
         </is>
       </c>
       <c r="X296" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y296" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.79, mv_30m : -2.86, mv_60m: -2.55</t>
+          <t>mv :12.75, mv_2m:-1.92,      mv_5m : -3.49, mv_30m : 2.66, mv_60m: 13.67</t>
         </is>
       </c>
       <c r="Z296" t="inlineStr">
@@ -28510,32 +28418,28 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA296" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>671</v>
+        <v>3436</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D297" s="2" t="n">
-        <v>45630.95968816625</v>
+        <v>45724.48826491898</v>
       </c>
       <c r="E297" t="n">
-        <v>214.69</v>
+        <v>113.21</v>
       </c>
       <c r="F297" t="n">
-        <v>3220.35</v>
+        <v>3283.09</v>
       </c>
       <c r="G297" t="n">
         <v>1.111</v>
@@ -28551,7 +28455,7 @@
         <v>0</v>
       </c>
       <c r="L297" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
@@ -28575,37 +28479,21 @@
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>FA19DF3FD7D884A000</t>
-        </is>
-      </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U297" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V297" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W297" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A57A9E9C33B2000</t>
+        </is>
+      </c>
+      <c r="T297" t="inlineStr"/>
+      <c r="U297" t="inlineStr"/>
+      <c r="V297" t="inlineStr"/>
+      <c r="W297" t="inlineStr"/>
       <c r="X297" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y297" t="inlineStr">
         <is>
-          <t>mv :-1.30, mv_2m:-0.45,      mv_5m : -1.79, mv_30m : -2.53, mv_60m: -2.45</t>
+          <t>mv :17.15, mv_2m:0.05,      mv_5m : -0.10, mv_30m : -2.52, mv_60m: -9.39</t>
         </is>
       </c>
       <c r="Z297" t="inlineStr">
@@ -28613,102 +28501,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA297" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>672</v>
+        <v>3634</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>ACN</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="D298" s="2" t="n">
-        <v>45630.95982635999</v>
+        <v>45727.19799712963</v>
       </c>
       <c r="E298" t="n">
-        <v>340.92</v>
+        <v>145.41</v>
       </c>
       <c r="F298" t="n">
-        <v>3068.28</v>
+        <v>2617.38</v>
       </c>
       <c r="G298" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H298" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>45727.31416289352</v>
+      </c>
+      <c r="I298" t="n">
+        <v>146.04</v>
+      </c>
       <c r="J298" t="n">
-        <v>0</v>
+        <v>2628.72</v>
       </c>
       <c r="K298" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L298" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O298" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P298" t="n">
         <v>1.006</v>
       </c>
       <c r="Q298" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R298" t="n">
-        <v>0</v>
+        <v>9.179999999999691</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>FA19DF3FE381FB2000</t>
-        </is>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U298" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V298" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5B270357BB2000</t>
+        </is>
+      </c>
+      <c r="T298" t="inlineStr"/>
+      <c r="U298" t="inlineStr"/>
+      <c r="V298" t="inlineStr"/>
       <c r="W298" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5B3E5149BB2000</t>
         </is>
       </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y298" t="inlineStr">
         <is>
-          <t>mv :-1.67, mv_2m:-0.82,      mv_5m : -2.18, mv_30m : -7.41, mv_60m: -7.69</t>
+          <t>mv :-31.43, mv_2m:1.06,      mv_5m : 1.64, mv_30m : -7.30, mv_60m: -17.94</t>
         </is>
       </c>
       <c r="Z298" t="inlineStr">
@@ -28716,52 +28590,50 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA298" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>673</v>
+        <v>3932</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ADBE</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="D299" s="2" t="n">
-        <v>45630.95987664739</v>
+        <v>45727.90259138889</v>
       </c>
       <c r="E299" t="n">
-        <v>508.44</v>
+        <v>34.295</v>
       </c>
       <c r="F299" t="n">
-        <v>3050.64</v>
+        <v>2743.6</v>
       </c>
       <c r="G299" t="n">
-        <v>1.111</v>
+        <v>1.23</v>
       </c>
       <c r="H299" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>45728.06778252315</v>
+      </c>
+      <c r="I299" t="n">
+        <v>34.44</v>
+      </c>
       <c r="J299" t="n">
-        <v>0</v>
+        <v>2755.2</v>
       </c>
       <c r="K299" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L299" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N299" t="n">
@@ -28777,33 +28649,21 @@
         <v>0.45</v>
       </c>
       <c r="R299" t="n">
-        <v>0</v>
+        <v>9.049999999999908</v>
       </c>
       <c r="S299" t="inlineStr">
         <is>
-          <t>FA19DF3FE7BEBB2000</t>
+          <t>FA1A5C0F3D8104A000</t>
         </is>
       </c>
       <c r="T299" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U299" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V299" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W299" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5C3806D67B2000</t>
+        </is>
+      </c>
+      <c r="U299" t="inlineStr"/>
+      <c r="V299" t="inlineStr"/>
+      <c r="W299" t="inlineStr"/>
       <c r="X299" t="inlineStr">
         <is>
           <t>before_market_open_2</t>
@@ -28811,7 +28671,7 @@
       </c>
       <c r="Y299" t="inlineStr">
         <is>
-          <t>mv :-1.67, mv_2m:-0.82,      mv_5m : -2.25, mv_30m : -7.33, mv_60m: -7.53</t>
+          <t>mv :-0.09, mv_2m:0.66,      mv_5m : 0.96, mv_30m : 0.08, mv_60m: 9.82</t>
         </is>
       </c>
       <c r="Z299" t="inlineStr">
@@ -28821,7 +28681,7 @@
       </c>
       <c r="AA299" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5C38076E3B2000</t>
         </is>
       </c>
     </row>
@@ -28830,41 +28690,43 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>674</v>
+        <v>3937</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>ADSK</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="D300" s="2" t="n">
-        <v>45630.95992557137</v>
+        <v>45728.02131976852</v>
       </c>
       <c r="E300" t="n">
-        <v>290.09</v>
+        <v>42.19</v>
       </c>
       <c r="F300" t="n">
-        <v>3190.99</v>
+        <v>2742.35</v>
       </c>
       <c r="G300" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H300" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>45728.14167711805</v>
+      </c>
+      <c r="I300" t="n">
+        <v>42.36</v>
+      </c>
       <c r="J300" t="n">
-        <v>0</v>
+        <v>2753.4</v>
       </c>
       <c r="K300" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L300" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N300" t="n">
@@ -28877,44 +28739,32 @@
         <v>1.006</v>
       </c>
       <c r="Q300" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R300" t="n">
-        <v>0</v>
+        <v>8.580000000000183</v>
       </c>
       <c r="S300" t="inlineStr">
         <is>
-          <t>FA19DF3FEBE1FB2000</t>
+          <t>FA1A5C365F2A7B2000</t>
         </is>
       </c>
       <c r="T300" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U300" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V300" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W300" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5C45A645C4A000</t>
+        </is>
+      </c>
+      <c r="U300" t="inlineStr"/>
+      <c r="V300" t="inlineStr"/>
+      <c r="W300" t="inlineStr"/>
       <c r="X300" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y300" t="inlineStr">
         <is>
-          <t>mv :-1.67, mv_2m:-0.82,      mv_5m : -2.25, mv_30m : -7.29, mv_60m: -10.18</t>
+          <t>mv :0.23, mv_2m:0.26,      mv_5m : -3.42, mv_30m : -6.04, mv_60m: -5.51</t>
         </is>
       </c>
       <c r="Z300" t="inlineStr">
@@ -28924,7 +28774,7 @@
       </c>
       <c r="AA300" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5C4E019D3B2000</t>
         </is>
       </c>
     </row>
@@ -28933,91 +28783,81 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>675</v>
+        <v>3959</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="D301" s="2" t="n">
-        <v>45630.9599848931</v>
+        <v>45728.14957509259</v>
       </c>
       <c r="E301" t="n">
-        <v>54.63</v>
+        <v>122.69</v>
       </c>
       <c r="F301" t="n">
-        <v>3277.8</v>
+        <v>2699.18</v>
       </c>
       <c r="G301" t="n">
-        <v>1.111</v>
+        <v>1.06</v>
       </c>
       <c r="H301" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>45728.22021313658</v>
+      </c>
+      <c r="I301" t="n">
+        <v>122.6909</v>
+      </c>
       <c r="J301" t="n">
-        <v>0</v>
+        <v>2699.1998</v>
       </c>
       <c r="K301" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L301" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N301" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O301" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P301" t="n">
         <v>1.006</v>
       </c>
       <c r="Q301" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R301" t="n">
-        <v>0</v>
+        <v>-2.190199999999968</v>
       </c>
       <c r="S301" t="inlineStr">
         <is>
-          <t>FA19DF3FF0E1BB2000</t>
-        </is>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U301" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V301" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5C60A4AFFB2000</t>
+        </is>
+      </c>
+      <c r="T301" t="inlineStr"/>
+      <c r="U301" t="inlineStr"/>
+      <c r="V301" t="inlineStr"/>
       <c r="W301" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5C6A6CCC44A000</t>
         </is>
       </c>
       <c r="X301" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y301" t="inlineStr">
         <is>
-          <t>mv :-1.67, mv_2m:-0.77,      mv_5m : -2.22, mv_30m : -8.84, mv_60m: -12.23</t>
+          <t>mv :-9.68, mv_2m:2.85,      mv_5m : 3.66, mv_30m : -5.74, mv_60m: -15.01</t>
         </is>
       </c>
       <c r="Z301" t="inlineStr">
@@ -29025,102 +28865,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA301" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>676</v>
+        <v>3960</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D302" s="2" t="n">
-        <v>45630.96004440539</v>
+        <v>45728.18920061343</v>
       </c>
       <c r="E302" t="n">
-        <v>114.37</v>
+        <v>149.57</v>
       </c>
       <c r="F302" t="n">
-        <v>3202.36</v>
+        <v>2692.26</v>
       </c>
       <c r="G302" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H302" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>45728.23969491898</v>
+      </c>
+      <c r="I302" t="n">
+        <v>150.27</v>
+      </c>
       <c r="J302" t="n">
-        <v>0</v>
+        <v>2704.86</v>
       </c>
       <c r="K302" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L302" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N302" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O302" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P302" t="n">
         <v>1.006</v>
       </c>
       <c r="Q302" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R302" t="n">
-        <v>0</v>
+        <v>10.42999999999991</v>
       </c>
       <c r="S302" t="inlineStr">
         <is>
-          <t>FA19DF3FF5E804A000</t>
-        </is>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U302" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V302" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5C6DB41E3B2000</t>
+        </is>
+      </c>
+      <c r="T302" t="inlineStr"/>
+      <c r="U302" t="inlineStr"/>
+      <c r="V302" t="inlineStr"/>
       <c r="W302" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5C706B9CFB2000</t>
         </is>
       </c>
       <c r="X302" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y302" t="inlineStr">
         <is>
-          <t>mv :-1.67, mv_2m:-0.77,      mv_5m : -2.25, mv_30m : -8.56, mv_60m: -11.38</t>
+          <t>mv :-9.79, mv_2m:0.18,      mv_5m : 0.66, mv_30m : -2.07, mv_60m: -7.54</t>
         </is>
       </c>
       <c r="Z302" t="inlineStr">
@@ -29128,102 +28954,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA302" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>677</v>
+        <v>3961</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="D303" s="2" t="n">
-        <v>45630.96029089233</v>
+        <v>45728.20312076389</v>
       </c>
       <c r="E303" t="n">
-        <v>100.06</v>
+        <v>264.87</v>
       </c>
       <c r="F303" t="n">
-        <v>3201.92</v>
+        <v>2648.7</v>
       </c>
       <c r="G303" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H303" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>45728.25123675926</v>
+      </c>
+      <c r="I303" t="n">
+        <v>264.82</v>
+      </c>
       <c r="J303" t="n">
-        <v>0</v>
+        <v>2648.2</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L303" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N303" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O303" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P303" t="n">
         <v>1.006</v>
       </c>
       <c r="Q303" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R303" t="n">
-        <v>0</v>
+        <v>-2.62</v>
       </c>
       <c r="S303" t="inlineStr">
         <is>
-          <t>FA19DF400AB344A000</t>
-        </is>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U303" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V303" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5C724AA83B2000</t>
+        </is>
+      </c>
+      <c r="T303" t="inlineStr"/>
+      <c r="U303" t="inlineStr"/>
+      <c r="V303" t="inlineStr"/>
       <c r="W303" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5C74F81404A000</t>
         </is>
       </c>
       <c r="X303" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y303" t="inlineStr">
         <is>
-          <t>mv :-1.69, mv_2m:-1.38,      mv_5m : -3.62, mv_30m : -13.59, mv_60m: -17.22</t>
+          <t>mv :-10.31, mv_2m:-0.66,      mv_5m : 6.89, mv_30m : 16.30, mv_60m: -9.15</t>
         </is>
       </c>
       <c r="Z303" t="inlineStr">
@@ -29231,35 +29043,31 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA303" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>678</v>
+        <v>4077</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MPC</t>
         </is>
       </c>
       <c r="D304" s="2" t="n">
-        <v>45630.96036123639</v>
+        <v>45728.78326734954</v>
       </c>
       <c r="E304" t="n">
-        <v>1207.6</v>
+        <v>134.11</v>
       </c>
       <c r="F304" t="n">
-        <v>2415.2</v>
+        <v>2682.2</v>
       </c>
       <c r="G304" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H304" s="2" t="n">
         <v>25934</v>
@@ -29272,61 +29080,49 @@
         <v>0</v>
       </c>
       <c r="L304" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N304" t="n">
         <v>1.05</v>
       </c>
       <c r="O304" t="n">
-        <v>1.005</v>
+        <v>1.02</v>
       </c>
       <c r="P304" t="n">
         <v>1.006</v>
       </c>
       <c r="Q304" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R304" t="n">
         <v>0</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
-          <t>FA19DF4010A2C4A000</t>
+          <t>FA1A5D31807C7B2000</t>
         </is>
       </c>
       <c r="T304" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U304" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V304" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W304" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5D82A68884A000</t>
+        </is>
+      </c>
+      <c r="U304" t="inlineStr"/>
+      <c r="V304" t="inlineStr"/>
+      <c r="W304" t="inlineStr"/>
       <c r="X304" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y304" t="inlineStr">
         <is>
-          <t>mv :-1.69, mv_2m:-1.38,      mv_5m : -3.58, mv_30m : -10.77, mv_60m: -14.07</t>
+          <t>mv :-24.45, mv_2m:-1.12,      mv_5m : 0.78, mv_30m : -15.34, mv_60m: -25.24</t>
         </is>
       </c>
       <c r="Z304" t="inlineStr">
@@ -29336,7 +29132,7 @@
       </c>
       <c r="AA304" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5D862FB87B2000</t>
         </is>
       </c>
     </row>
@@ -29345,41 +29141,43 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>679</v>
+        <v>4086</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="D305" s="2" t="n">
-        <v>45630.96041141474</v>
+        <v>45728.78494418981</v>
       </c>
       <c r="E305" t="n">
-        <v>167.63</v>
+        <v>472.43</v>
       </c>
       <c r="F305" t="n">
-        <v>3184.97</v>
+        <v>2362.15</v>
       </c>
       <c r="G305" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H305" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>45730.10721021991</v>
+      </c>
+      <c r="I305" t="n">
+        <v>474.54</v>
+      </c>
       <c r="J305" t="n">
-        <v>0</v>
+        <v>2372.7</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L305" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N305" t="n">
@@ -29395,33 +29193,21 @@
         <v>0.45</v>
       </c>
       <c r="R305" t="n">
-        <v>0</v>
+        <v>8.450000000000182</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
-          <t>FA19DF4014DEBB2000</t>
+          <t>FA1A5D320DF6BB2000</t>
         </is>
       </c>
       <c r="T305" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U305" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V305" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W305" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5D82428304A000</t>
+        </is>
+      </c>
+      <c r="U305" t="inlineStr"/>
+      <c r="V305" t="inlineStr"/>
+      <c r="W305" t="inlineStr"/>
       <c r="X305" t="inlineStr">
         <is>
           <t>before_market_open_2</t>
@@ -29429,7 +29215,7 @@
       </c>
       <c r="Y305" t="inlineStr">
         <is>
-          <t>mv :-1.69, mv_2m:-1.38,      mv_5m : -3.58, mv_30m : -10.75, mv_60m: -14.01</t>
+          <t>mv :-24.45, mv_2m:0.00,      mv_5m : 0.41, mv_30m : 2.68, mv_60m: 2.39</t>
         </is>
       </c>
       <c r="Z305" t="inlineStr">
@@ -29439,7 +29225,7 @@
       </c>
       <c r="AA305" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5ECC74FA04A000</t>
         </is>
       </c>
     </row>
@@ -29448,41 +29234,41 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>680</v>
+        <v>4089</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>HCA</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D306" s="2" t="n">
-        <v>45630.96047615295</v>
+        <v>45730.08516857639</v>
       </c>
       <c r="E306" t="n">
-        <v>320.65</v>
+        <v>150.9177</v>
       </c>
       <c r="F306" t="n">
-        <v>3206.5</v>
-      </c>
-      <c r="G306" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3169.2717</v>
+      </c>
+      <c r="G306" t="inlineStr"/>
       <c r="H306" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>45730.14014233796</v>
+      </c>
+      <c r="I306" t="n">
+        <v>150.88</v>
+      </c>
       <c r="J306" t="n">
-        <v>0</v>
+        <v>3168.48</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L306" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N306" t="n">
@@ -29497,34 +29283,20 @@
       <c r="Q306" t="n">
         <v>0.45</v>
       </c>
-      <c r="R306" t="n">
-        <v>0</v>
-      </c>
+      <c r="R306" t="inlineStr"/>
       <c r="S306" t="inlineStr">
         <is>
-          <t>FA19DF401A5784A000</t>
+          <t>FA1A5EDE989FFB2000</t>
         </is>
       </c>
       <c r="T306" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U306" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V306" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W306" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5EE35C7144A000</t>
+        </is>
+      </c>
+      <c r="U306" t="inlineStr"/>
+      <c r="V306" t="inlineStr"/>
+      <c r="W306" t="inlineStr"/>
       <c r="X306" t="inlineStr">
         <is>
           <t>before_market_open_1</t>
@@ -29532,7 +29304,7 @@
       </c>
       <c r="Y306" t="inlineStr">
         <is>
-          <t>mv :-2.39, mv_2m:-2.08,      mv_5m : -4.31, mv_30m : -11.61, mv_60m: -16.14</t>
+          <t>mv :-1.56, mv_2m:0.83,      mv_5m : 2.10, mv_30m : -4.97, mv_60m: 2.71</t>
         </is>
       </c>
       <c r="Z306" t="inlineStr">
@@ -29540,52 +29312,50 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA306" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>681</v>
+        <v>4093</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="D307" s="2" t="n">
-        <v>45630.960638032</v>
+        <v>45730.08685921296</v>
       </c>
       <c r="E307" t="n">
-        <v>128.22</v>
+        <v>192.49</v>
       </c>
       <c r="F307" t="n">
-        <v>3205.5</v>
+        <v>3272.33</v>
       </c>
       <c r="G307" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>45730.13614768518</v>
+      </c>
+      <c r="I307" t="n">
+        <v>192.765</v>
+      </c>
       <c r="J307" t="n">
-        <v>0</v>
+        <v>3277.005</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L307" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N307" t="n">
@@ -29601,41 +29371,29 @@
         <v>0.45</v>
       </c>
       <c r="R307" t="n">
-        <v>0</v>
+        <v>2.494999999999727</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
-          <t>FA19DF4027FCC4A000</t>
+          <t>FA1A5EDF2781BB2000</t>
         </is>
       </c>
       <c r="T307" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U307" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V307" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W307" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5EE11C3684A000</t>
+        </is>
+      </c>
+      <c r="U307" t="inlineStr"/>
+      <c r="V307" t="inlineStr"/>
+      <c r="W307" t="inlineStr"/>
       <c r="X307" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_1</t>
         </is>
       </c>
       <c r="Y307" t="inlineStr">
         <is>
-          <t>mv :-2.41, mv_2m:-2.10,      mv_5m : -4.88, mv_30m : -15.10, mv_60m: -17.80</t>
+          <t>mv :-1.89, mv_2m:0.49,      mv_5m : 7.74, mv_30m : -11.67, mv_60m: 15.27</t>
         </is>
       </c>
       <c r="Z307" t="inlineStr">
@@ -29643,102 +29401,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA307" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>682</v>
+        <v>4094</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="D308" s="2" t="n">
-        <v>45630.9606977306</v>
+        <v>45730.14837975695</v>
       </c>
       <c r="E308" t="n">
-        <v>174.79</v>
+        <v>222.62</v>
       </c>
       <c r="F308" t="n">
-        <v>3146.22</v>
+        <v>3116.68</v>
       </c>
       <c r="G308" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>45730.20127149305</v>
+      </c>
+      <c r="I308" t="n">
+        <v>222.97</v>
+      </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>3121.58</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L308" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O308" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P308" t="n">
         <v>1.006</v>
       </c>
       <c r="Q308" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R308" t="n">
-        <v>0</v>
+        <v>2.740000000000091</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
-          <t>FA19DF402D0944A000</t>
-        </is>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U308" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V308" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5EF36DE204A000</t>
+        </is>
+      </c>
+      <c r="T308" t="inlineStr"/>
+      <c r="U308" t="inlineStr"/>
+      <c r="V308" t="inlineStr"/>
       <c r="W308" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5EF7BECF3B2000</t>
         </is>
       </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y308" t="inlineStr">
         <is>
-          <t>mv :-2.41, mv_2m:-2.18,      mv_5m : -4.96, mv_30m : -14.96, mv_60m: -16.35</t>
+          <t>mv :3.52, mv_2m:4.02,      mv_5m : 7.42, mv_30m : 11.07, mv_60m: 2.37</t>
         </is>
       </c>
       <c r="Z308" t="inlineStr">
@@ -29746,102 +29490,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA308" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>683</v>
+        <v>4095</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>ICE</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D309" s="2" t="n">
-        <v>45630.96076967205</v>
+        <v>45730.14930753472</v>
       </c>
       <c r="E309" t="n">
-        <v>150.58</v>
+        <v>349.99</v>
       </c>
       <c r="F309" t="n">
-        <v>3162.18</v>
+        <v>2799.92</v>
       </c>
       <c r="G309" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>45731.04202106482</v>
+      </c>
+      <c r="I309" t="n">
+        <v>350</v>
+      </c>
       <c r="J309" t="n">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="K309" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L309" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N309" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O309" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P309" t="n">
         <v>1.006</v>
       </c>
       <c r="Q309" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R309" t="n">
-        <v>0</v>
+        <v>-2.030000000000073</v>
       </c>
       <c r="S309" t="inlineStr">
         <is>
-          <t>FA19DF403319FB2000</t>
-        </is>
-      </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U309" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V309" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5EF3BC2BC4A000</t>
+        </is>
+      </c>
+      <c r="T309" t="inlineStr"/>
+      <c r="U309" t="inlineStr"/>
+      <c r="V309" t="inlineStr"/>
       <c r="W309" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5FCB3A3B84A000</t>
         </is>
       </c>
       <c r="X309" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y309" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.19,      mv_5m : -6.71, mv_30m : -16.95, mv_60m: -18.17</t>
+          <t>mv :3.63, mv_2m:0.02,      mv_5m : 0.16, mv_30m : 0.34, mv_60m: 0.58</t>
         </is>
       </c>
       <c r="Z309" t="inlineStr">
@@ -29849,102 +29579,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA309" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>684</v>
+        <v>4096</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>ECL</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="D310" s="2" t="n">
-        <v>45630.96082760868</v>
+        <v>45730.16387517361</v>
       </c>
       <c r="E310" t="n">
-        <v>239.03</v>
+        <v>815.37</v>
       </c>
       <c r="F310" t="n">
-        <v>3107.39</v>
+        <v>3261.48</v>
       </c>
       <c r="G310" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H310" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>45730.27913216435</v>
+      </c>
+      <c r="I310" t="n">
+        <v>818.79</v>
+      </c>
       <c r="J310" t="n">
-        <v>0</v>
+        <v>3275.16</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L310" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N310" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O310" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P310" t="n">
         <v>1.006</v>
       </c>
       <c r="Q310" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R310" t="n">
-        <v>0</v>
+        <v>11.57999999999984</v>
       </c>
       <c r="S310" t="inlineStr">
         <is>
-          <t>FA19DF4037FCBB2000</t>
-        </is>
-      </c>
-      <c r="T310" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U310" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V310" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5EF8894D7B2000</t>
+        </is>
+      </c>
+      <c r="T310" t="inlineStr"/>
+      <c r="U310" t="inlineStr"/>
+      <c r="V310" t="inlineStr"/>
       <c r="W310" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F105B1944A000</t>
         </is>
       </c>
       <c r="X310" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y310" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.19,      mv_5m : -7.10, mv_30m : -15.40, mv_60m: -19.36</t>
+          <t>mv :2.99, mv_2m:-1.48,      mv_5m : 1.38, mv_30m : -3.39, mv_60m: 4.56</t>
         </is>
       </c>
       <c r="Z310" t="inlineStr">
@@ -29952,59 +29668,57 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA310" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>685</v>
+        <v>4097</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D311" s="2" t="n">
-        <v>45630.96089546762</v>
+        <v>45730.24326982639</v>
       </c>
       <c r="E311" t="n">
-        <v>147</v>
+        <v>159.57</v>
       </c>
       <c r="F311" t="n">
-        <v>3234</v>
+        <v>3191.4</v>
       </c>
       <c r="G311" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>45730.28527601852</v>
+      </c>
+      <c r="I311" t="n">
+        <v>159.5539</v>
+      </c>
       <c r="J311" t="n">
-        <v>0</v>
+        <v>3191.078</v>
       </c>
       <c r="K311" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L311" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N311" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O311" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P311" t="n">
         <v>1.006</v>
@@ -30013,41 +29727,37 @@
         <v>0.45</v>
       </c>
       <c r="R311" t="n">
-        <v>0</v>
+        <v>-2.522000000000117</v>
       </c>
       <c r="S311" t="inlineStr">
         <is>
-          <t>FA19DF403DB7BB2000</t>
-        </is>
-      </c>
-      <c r="T311" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5F12B4373B2000</t>
+        </is>
+      </c>
+      <c r="T311" t="inlineStr"/>
       <c r="U311" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F13B22B84A000</t>
         </is>
       </c>
       <c r="V311" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F12F2667B2000</t>
         </is>
       </c>
       <c r="W311" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F12B4F7FB2000</t>
         </is>
       </c>
       <c r="X311" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>maxminnorm</t>
         </is>
       </c>
       <c r="Y311" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.20,      mv_5m : -7.10, mv_30m : -16.20, mv_60m: -19.82</t>
+          <t>mv :3.99, mv_2m:-0.03,      mv_5m : 0.94, mv_30m : 4.07, mv_60m: 8.98</t>
         </is>
       </c>
       <c r="Z311" t="inlineStr">
@@ -30055,59 +29765,57 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA311" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>686</v>
+        <v>4098</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="D312" s="2" t="n">
-        <v>45630.96094712891</v>
+        <v>45730.26001116898</v>
       </c>
       <c r="E312" t="n">
-        <v>444.44</v>
+        <v>159.3198</v>
       </c>
       <c r="F312" t="n">
-        <v>3111.08</v>
+        <v>3186.396</v>
       </c>
       <c r="G312" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>45730.30067361111</v>
+      </c>
+      <c r="I312" t="n">
+        <v>159.27</v>
+      </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>3185.4</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L312" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N312" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O312" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P312" t="n">
         <v>1.006</v>
@@ -30116,41 +29824,37 @@
         <v>0.45</v>
       </c>
       <c r="R312" t="n">
-        <v>0</v>
+        <v>-3.196000000000095</v>
       </c>
       <c r="S312" t="inlineStr">
         <is>
-          <t>FA19DF40421644A000</t>
-        </is>
-      </c>
-      <c r="T312" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A5F1838C17B2000</t>
+        </is>
+      </c>
+      <c r="T312" t="inlineStr"/>
       <c r="U312" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F18C3FC3B2000</t>
         </is>
       </c>
       <c r="V312" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F1876EE04A000</t>
         </is>
       </c>
       <c r="W312" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A5F18398104A000</t>
         </is>
       </c>
       <c r="X312" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>maxminnorm</t>
         </is>
       </c>
       <c r="Y312" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.20,      mv_5m : -7.10, mv_30m : -14.10, mv_60m: -17.75</t>
+          <t>mv :5.75, mv_2m:0.13,      mv_5m : 1.53, mv_30m : -0.57, mv_60m: 2.16</t>
         </is>
       </c>
       <c r="Z312" t="inlineStr">
@@ -30158,102 +29862,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA312" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>687</v>
+        <v>4099</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="D313" s="2" t="n">
-        <v>45630.96101943964</v>
+        <v>45731.16195413195</v>
       </c>
       <c r="E313" t="n">
-        <v>231.16</v>
+        <v>50.17</v>
       </c>
       <c r="F313" t="n">
-        <v>3236.24</v>
+        <v>3261.05</v>
       </c>
       <c r="G313" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I313" t="inlineStr"/>
+        <v>45731.33097373843</v>
+      </c>
+      <c r="I313" t="n">
+        <v>50</v>
+      </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L313" t="n">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N313" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O313" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P313" t="n">
         <v>1.006</v>
       </c>
       <c r="Q313" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R313" t="n">
-        <v>0</v>
+        <v>-13.53000000000018</v>
       </c>
       <c r="S313" t="inlineStr">
         <is>
-          <t>FA19DF40482C7B2000</t>
-        </is>
-      </c>
-      <c r="T313" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U313" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V313" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A60417E2904A000</t>
+        </is>
+      </c>
+      <c r="T313" t="inlineStr"/>
+      <c r="U313" t="inlineStr"/>
+      <c r="V313" t="inlineStr"/>
       <c r="W313" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A606C27DC3B2000</t>
         </is>
       </c>
       <c r="X313" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y313" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.18,      mv_5m : -7.13, mv_30m : -14.80, mv_60m: -18.35</t>
+          <t>mv :1.39, mv_2m:2.26,      mv_5m : 4.25, mv_30m : 7.64, mv_60m: 0.32</t>
         </is>
       </c>
       <c r="Z313" t="inlineStr">
@@ -30261,102 +29951,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA313" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>688</v>
+        <v>4100</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="D314" s="2" t="n">
-        <v>45630.96108979969</v>
+        <v>45731.18759912037</v>
       </c>
       <c r="E314" t="n">
-        <v>618.66</v>
+        <v>43.3497</v>
       </c>
       <c r="F314" t="n">
-        <v>3093.3</v>
+        <v>2861.0802</v>
       </c>
       <c r="G314" t="n">
-        <v>1.111</v>
+        <v>1.19</v>
       </c>
       <c r="H314" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
+        <v>45731.31673101852</v>
+      </c>
+      <c r="I314" t="n">
+        <v>43.6109</v>
+      </c>
       <c r="J314" t="n">
-        <v>0</v>
+        <v>2878.3194</v>
       </c>
       <c r="K314" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L314" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N314" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O314" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P314" t="n">
         <v>1.006</v>
       </c>
       <c r="Q314" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R314" t="n">
-        <v>0</v>
+        <v>14.76919999999998</v>
       </c>
       <c r="S314" t="inlineStr">
         <is>
-          <t>FA19DF404E1AC4A000</t>
-        </is>
-      </c>
-      <c r="T314" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U314" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V314" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6049F1F204A000</t>
+        </is>
+      </c>
+      <c r="T314" t="inlineStr"/>
+      <c r="U314" t="inlineStr"/>
+      <c r="V314" t="inlineStr"/>
       <c r="W314" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6059DC9384A000</t>
         </is>
       </c>
       <c r="X314" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y314" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.18,      mv_5m : -7.13, mv_30m : -15.87, mv_60m: -19.76</t>
+          <t>mv :-1.48, mv_2m:0.54,      mv_5m : -2.50, mv_30m : -10.22, mv_60m: 1.72</t>
         </is>
       </c>
       <c r="Z314" t="inlineStr">
@@ -30364,102 +30040,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA314" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>689</v>
+        <v>4101</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>ISRG</t>
         </is>
       </c>
       <c r="D315" s="2" t="n">
-        <v>45630.96113839718</v>
+        <v>45734.15098078704</v>
       </c>
       <c r="E315" t="n">
-        <v>504.23</v>
+        <v>484.8008</v>
       </c>
       <c r="F315" t="n">
-        <v>3025.38</v>
+        <v>2908.8048</v>
       </c>
       <c r="G315" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>45734.22751063657</v>
+      </c>
+      <c r="I315" t="n">
+        <v>487.82</v>
+      </c>
       <c r="J315" t="n">
-        <v>0</v>
+        <v>2926.92</v>
       </c>
       <c r="K315" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L315" t="n">
         <v>6</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O315" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P315" t="n">
-        <v>1.006</v>
+        <v>1.0065</v>
       </c>
       <c r="Q315" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R315" t="n">
-        <v>0</v>
+        <v>16.00520000000018</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>FA19DF405241FB2000</t>
-        </is>
-      </c>
-      <c r="T315" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U315" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V315" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A641AA54844A000</t>
+        </is>
+      </c>
+      <c r="T315" t="inlineStr"/>
+      <c r="U315" t="inlineStr"/>
+      <c r="V315" t="inlineStr"/>
       <c r="W315" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6421BB84C4A000</t>
         </is>
       </c>
       <c r="X315" t="inlineStr">
         <is>
-          <t>before_market_open_1</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y315" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.18,      mv_5m : -7.13, mv_30m : -16.55, mv_60m: -20.58</t>
+          <t>mv :-14.25, mv_2m:1.19,      mv_5m : 2.65, mv_30m : 0.38, mv_60m: 12.04</t>
         </is>
       </c>
       <c r="Z315" t="inlineStr">
@@ -30467,102 +30129,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA315" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>690</v>
+        <v>4102</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="D316" s="2" t="n">
-        <v>45630.96133272655</v>
+        <v>45734.19213497685</v>
       </c>
       <c r="E316" t="n">
-        <v>51.35</v>
+        <v>34.645</v>
       </c>
       <c r="F316" t="n">
-        <v>3286.4</v>
+        <v>3291.275</v>
       </c>
       <c r="G316" t="n">
-        <v>1.111</v>
+        <v>1.28</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>45734.23457677083</v>
+      </c>
+      <c r="I316" t="n">
+        <v>34.6752</v>
+      </c>
       <c r="J316" t="n">
-        <v>0</v>
+        <v>3294.144</v>
       </c>
       <c r="K316" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="L316" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O316" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P316" t="n">
         <v>1.006</v>
       </c>
       <c r="Q316" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R316" t="n">
-        <v>0</v>
+        <v>0.198999999999687</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>FA19DF40629BFB2000</t>
-        </is>
-      </c>
-      <c r="T316" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U316" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V316" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A642835A9FB2000</t>
+        </is>
+      </c>
+      <c r="T316" t="inlineStr"/>
+      <c r="U316" t="inlineStr"/>
+      <c r="V316" t="inlineStr"/>
       <c r="W316" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6428753144A000</t>
         </is>
       </c>
       <c r="X316" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y316" t="inlineStr">
         <is>
-          <t>mv :-2.42, mv_2m:-2.18,      mv_5m : -5.98, mv_30m : -18.60, mv_60m: -20.92</t>
+          <t>mv :-5.41, mv_2m:0.52,      mv_5m : 0.74, mv_30m : 3.72, mv_60m: 4.37</t>
         </is>
       </c>
       <c r="Z316" t="inlineStr">
@@ -30570,102 +30218,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA316" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>691</v>
+        <v>4103</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="D317" s="2" t="n">
-        <v>45630.9614517357</v>
+        <v>45734.20047126157</v>
       </c>
       <c r="E317" t="n">
-        <v>75.13</v>
+        <v>98.98860000000001</v>
       </c>
       <c r="F317" t="n">
-        <v>3230.59</v>
+        <v>3266.6238</v>
       </c>
       <c r="G317" t="n">
-        <v>1.111</v>
+        <v>1.09</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>45734.27698543981</v>
+      </c>
+      <c r="I317" t="n">
+        <v>99.1327</v>
+      </c>
       <c r="J317" t="n">
-        <v>0</v>
+        <v>3271.3791</v>
       </c>
       <c r="K317" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L317" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N317" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O317" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P317" t="n">
         <v>1.006</v>
       </c>
       <c r="Q317" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R317" t="n">
-        <v>0</v>
+        <v>2.475300000000261</v>
       </c>
       <c r="S317" t="inlineStr">
         <is>
-          <t>FA19DF406CA6C4A000</t>
-        </is>
-      </c>
-      <c r="T317" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U317" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V317" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A642AF509BB2000</t>
+        </is>
+      </c>
+      <c r="T317" t="inlineStr"/>
+      <c r="U317" t="inlineStr"/>
+      <c r="V317" t="inlineStr"/>
       <c r="W317" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A642F59A5C4A000</t>
         </is>
       </c>
       <c r="X317" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y317" t="inlineStr">
         <is>
-          <t>mv :-2.57, mv_2m:-2.62,      mv_5m : -6.31, mv_30m : -19.34, mv_60m: -22.52</t>
+          <t>mv :-4.59, mv_2m:-0.03,      mv_5m : -0.11, mv_30m : 0.05, mv_60m: 0.82</t>
         </is>
       </c>
       <c r="Z317" t="inlineStr">
@@ -30673,102 +30307,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA317" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>692</v>
+        <v>4104</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="D318" s="2" t="n">
-        <v>45630.96152242968</v>
+        <v>45734.20338975694</v>
       </c>
       <c r="E318" t="n">
-        <v>10.49</v>
+        <v>174.0133</v>
       </c>
       <c r="F318" t="n">
-        <v>3293.86</v>
+        <v>2784.2128</v>
       </c>
       <c r="G318" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H318" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>45734.25894493055</v>
+      </c>
+      <c r="I318" t="n">
+        <v>173.9894</v>
+      </c>
       <c r="J318" t="n">
-        <v>0</v>
+        <v>2783.8304</v>
       </c>
       <c r="K318" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L318" t="n">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N318" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O318" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P318" t="n">
         <v>1.006</v>
       </c>
       <c r="Q318" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R318" t="n">
-        <v>0</v>
+        <v>-2.552399999999961</v>
       </c>
       <c r="S318" t="inlineStr">
         <is>
-          <t>FA19DF40729DFB2000</t>
-        </is>
-      </c>
-      <c r="T318" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U318" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V318" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A642BEB4784A000</t>
+        </is>
+      </c>
+      <c r="T318" t="inlineStr"/>
+      <c r="U318" t="inlineStr"/>
+      <c r="V318" t="inlineStr"/>
       <c r="W318" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A642EEE1744A000</t>
         </is>
       </c>
       <c r="X318" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y318" t="inlineStr">
         <is>
-          <t>mv :-2.57, mv_2m:-2.53,      mv_5m : -6.08, mv_30m : -19.28, mv_60m: -22.63</t>
+          <t>mv :-4.14, mv_2m:-0.07,      mv_5m : 0.24, mv_30m : 0.56, mv_60m: 1.72</t>
         </is>
       </c>
       <c r="Z318" t="inlineStr">
@@ -30776,102 +30396,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA318" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>693</v>
+        <v>4105</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="D319" s="2" t="n">
-        <v>45630.9615777372</v>
+        <v>45734.22552615741</v>
       </c>
       <c r="E319" t="n">
-        <v>76.09</v>
+        <v>174.2198</v>
       </c>
       <c r="F319" t="n">
-        <v>3271.87</v>
+        <v>2787.5168</v>
       </c>
       <c r="G319" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H319" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>45735.05975487269</v>
+      </c>
+      <c r="I319" t="n">
+        <v>174.26</v>
+      </c>
       <c r="J319" t="n">
-        <v>0</v>
+        <v>2788.16</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L319" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N319" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O319" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P319" t="n">
         <v>1.006</v>
       </c>
       <c r="Q319" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R319" t="n">
-        <v>0</v>
+        <v>-1.526800000000021</v>
       </c>
       <c r="S319" t="inlineStr">
         <is>
-          <t>FA19DF40774684A000</t>
-        </is>
-      </c>
-      <c r="T319" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U319" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V319" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A64333709FB2000</t>
+        </is>
+      </c>
+      <c r="T319" t="inlineStr"/>
+      <c r="U319" t="inlineStr"/>
+      <c r="V319" t="inlineStr"/>
       <c r="W319" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6448375984A000</t>
         </is>
       </c>
       <c r="X319" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y319" t="inlineStr">
         <is>
-          <t>mv :-2.62, mv_2m:-2.58,      mv_5m : -6.11, mv_30m : -19.07, mv_60m: -22.35</t>
+          <t>mv :-4.84, mv_2m:-0.08,      mv_5m : -0.58, mv_30m : 0.67, mv_60m: 1.30</t>
         </is>
       </c>
       <c r="Z319" t="inlineStr">
@@ -30879,102 +30485,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA319" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>694</v>
+        <v>4106</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="D320" s="2" t="n">
-        <v>45631.03425078568</v>
+        <v>45735.16537862268</v>
       </c>
       <c r="E320" t="n">
-        <v>1235.15</v>
+        <v>260.1</v>
       </c>
       <c r="F320" t="n">
-        <v>2470.3</v>
+        <v>3121.2</v>
       </c>
       <c r="G320" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>45735.2930058912</v>
+      </c>
+      <c r="I320" t="n">
+        <v>260.07</v>
+      </c>
       <c r="J320" t="n">
-        <v>0</v>
+        <v>3120.84</v>
       </c>
       <c r="K320" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L320" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N320" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O320" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P320" t="n">
         <v>1.006</v>
       </c>
       <c r="Q320" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R320" t="n">
-        <v>0</v>
+        <v>-2.519999999999673</v>
       </c>
       <c r="S320" t="inlineStr">
         <is>
-          <t>FA19DF586B0E3B2000</t>
-        </is>
-      </c>
-      <c r="T320" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U320" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V320" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6568FB1E44A000</t>
+        </is>
+      </c>
+      <c r="T320" t="inlineStr"/>
+      <c r="U320" t="inlineStr"/>
+      <c r="V320" t="inlineStr"/>
       <c r="W320" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A657E7C40FB2000</t>
         </is>
       </c>
       <c r="X320" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y320" t="inlineStr">
         <is>
-          <t>mv :-5.98, mv_2m:0.42,      mv_5m : -4.35, mv_30m : -6.84, mv_60m: -16.29</t>
+          <t>mv :-41.16, mv_2m:-0.19,      mv_5m : 2.92, mv_30m : -1.68, mv_60m: 10.10</t>
         </is>
       </c>
       <c r="Z320" t="inlineStr">
@@ -30982,102 +30574,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA320" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>695</v>
+        <v>4107</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="D321" s="2" t="n">
-        <v>45631.03640256499</v>
+        <v>45735.16697527777</v>
       </c>
       <c r="E321" t="n">
-        <v>1235.15</v>
+        <v>709.2</v>
       </c>
       <c r="F321" t="n">
-        <v>2470.3</v>
+        <v>2836.8</v>
       </c>
       <c r="G321" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>45735.21820920139</v>
+      </c>
+      <c r="I321" t="n">
+        <v>708.36</v>
+      </c>
       <c r="J321" t="n">
-        <v>0</v>
+        <v>2833.44</v>
       </c>
       <c r="K321" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L321" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N321" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O321" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P321" t="n">
         <v>1.006</v>
       </c>
       <c r="Q321" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R321" t="n">
-        <v>0</v>
+        <v>-5.450000000000127</v>
       </c>
       <c r="S321" t="inlineStr">
         <is>
-          <t>FA19DF59209B84A000</t>
-        </is>
-      </c>
-      <c r="T321" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U321" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V321" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A656981DB04A000</t>
+        </is>
+      </c>
+      <c r="T321" t="inlineStr"/>
+      <c r="U321" t="inlineStr"/>
+      <c r="V321" t="inlineStr"/>
       <c r="W321" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A656D1119C4A000</t>
         </is>
       </c>
       <c r="X321" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y321" t="inlineStr">
         <is>
-          <t>mv :-6.21, mv_2m:1.44,      mv_5m : 0.32, mv_30m : -9.99, mv_60m: -15.61</t>
+          <t>mv :-40.66, mv_2m:0.30,      mv_5m : 4.97, mv_30m : -4.32, mv_60m: 20.39</t>
         </is>
       </c>
       <c r="Z321" t="inlineStr">
@@ -31085,102 +30663,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA321" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>696</v>
+        <v>4108</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="D322" s="2" t="n">
-        <v>45631.03858092259</v>
+        <v>45735.18447006944</v>
       </c>
       <c r="E322" t="n">
-        <v>1235.15</v>
+        <v>150.9999</v>
       </c>
       <c r="F322" t="n">
-        <v>2470.3</v>
+        <v>3019.998</v>
       </c>
       <c r="G322" t="n">
-        <v>1.111</v>
+        <v>1.05</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>45735.41974148148</v>
+      </c>
+      <c r="I322" t="n">
+        <v>149.431</v>
+      </c>
       <c r="J322" t="n">
-        <v>0</v>
+        <v>2988.62</v>
       </c>
       <c r="K322" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L322" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O322" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P322" t="n">
         <v>1.006</v>
       </c>
       <c r="Q322" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R322" t="n">
-        <v>0</v>
+        <v>-33.5879999999997</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>FA19DF59D86944A000</t>
-        </is>
-      </c>
-      <c r="T322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A656F45F304A000</t>
+        </is>
+      </c>
+      <c r="T322" t="inlineStr"/>
+      <c r="U322" t="inlineStr"/>
+      <c r="V322" t="inlineStr"/>
       <c r="W322" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A65A0725B7B2000</t>
         </is>
       </c>
       <c r="X322" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y322" t="inlineStr">
         <is>
-          <t>mv :-5.63, mv_2m:1.49,      mv_5m : 1.90, mv_30m : -8.36, mv_60m: -12.64</t>
+          <t>mv :-41.12, mv_2m:0.52,      mv_5m : 0.64, mv_30m : 0.23, mv_60m: -0.39</t>
         </is>
       </c>
       <c r="Z322" t="inlineStr">
@@ -31188,102 +30752,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA322" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>697</v>
+        <v>4109</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="D323" s="2" t="n">
-        <v>45631.0407645887</v>
+        <v>45736.21568609954</v>
       </c>
       <c r="E323" t="n">
-        <v>1235.15</v>
+        <v>128.5494</v>
       </c>
       <c r="F323" t="n">
-        <v>2470.3</v>
+        <v>3213.735</v>
       </c>
       <c r="G323" t="n">
-        <v>1.111</v>
+        <v>1.07</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>45736.30331121528</v>
+      </c>
+      <c r="I323" t="n">
+        <v>129.2323</v>
+      </c>
       <c r="J323" t="n">
-        <v>0</v>
+        <v>3230.8075</v>
       </c>
       <c r="K323" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L323" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O323" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P323" t="n">
-        <v>1.006</v>
+        <v>1.0075</v>
       </c>
       <c r="Q323" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R323" t="n">
-        <v>0</v>
+        <v>14.83250000000022</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>FA19DF5A90AAFB2000</t>
-        </is>
-      </c>
-      <c r="T323" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U323" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V323" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A66C326D3BB2000</t>
+        </is>
+      </c>
+      <c r="T323" t="inlineStr"/>
+      <c r="U323" t="inlineStr"/>
+      <c r="V323" t="inlineStr"/>
       <c r="W323" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A66CCED227B2000</t>
         </is>
       </c>
       <c r="X323" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y323" t="inlineStr">
         <is>
-          <t>mv :-5.49, mv_2m:0.00,      mv_5m : 0.56, mv_30m : -8.02, mv_60m: -13.33</t>
+          <t>mv :28.44, mv_2m:4.45,      mv_5m : -0.66, mv_30m : 11.92, mv_60m: 6.07</t>
         </is>
       </c>
       <c r="Z323" t="inlineStr">
@@ -31291,52 +30841,50 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA323" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>698</v>
+        <v>4110</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="D324" s="2" t="n">
-        <v>45631.04357700206</v>
+        <v>45737.07054586805</v>
       </c>
       <c r="E324" t="n">
-        <v>1235.15</v>
+        <v>260.52</v>
       </c>
       <c r="F324" t="n">
-        <v>2470.3</v>
+        <v>3126.24</v>
       </c>
       <c r="G324" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H324" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>45741.06419210648</v>
+      </c>
+      <c r="I324" t="n">
+        <v>264.97</v>
+      </c>
       <c r="J324" t="n">
-        <v>0</v>
+        <v>3179.64</v>
       </c>
       <c r="K324" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L324" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N324" t="n">
@@ -31346,47 +30894,35 @@
         <v>1.005</v>
       </c>
       <c r="P324" t="n">
-        <v>1.006</v>
+        <v>1.0075</v>
       </c>
       <c r="Q324" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R324" t="n">
-        <v>0</v>
+        <v>51.24000000000054</v>
       </c>
       <c r="S324" t="inlineStr">
         <is>
-          <t>FA19DF5B7DF7BB2000</t>
+          <t>FA1A67DCE7B53B2000</t>
         </is>
       </c>
       <c r="T324" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U324" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V324" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W324" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A67DDE60804A000</t>
+        </is>
+      </c>
+      <c r="U324" t="inlineStr"/>
+      <c r="V324" t="inlineStr"/>
+      <c r="W324" t="inlineStr"/>
       <c r="X324" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>before_market_open_3</t>
         </is>
       </c>
       <c r="Y324" t="inlineStr">
         <is>
-          <t>mv :-6.49, mv_2m:-1.11,      mv_5m : -1.51, mv_30m : -8.01, mv_60m: -12.91</t>
+          <t>mv :-12.79, mv_2m:0.08,      mv_5m : 7.29, mv_30m : 18.93, mv_60m: 51.15</t>
         </is>
       </c>
       <c r="Z324" t="inlineStr">
@@ -31394,102 +30930,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA324" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>699</v>
+        <v>4111</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="D325" s="2" t="n">
-        <v>45631.04571467188</v>
+        <v>45737.19027971064</v>
       </c>
       <c r="E325" t="n">
-        <v>1235.15</v>
+        <v>822.61</v>
       </c>
       <c r="F325" t="n">
-        <v>2470.3</v>
+        <v>2467.83</v>
       </c>
       <c r="G325" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I325" t="inlineStr"/>
+        <v>45737.45841315972</v>
+      </c>
+      <c r="I325" t="n">
+        <v>823.87</v>
+      </c>
       <c r="J325" t="n">
-        <v>0</v>
+        <v>2471.61</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="L325" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N325" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O325" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P325" t="n">
         <v>1.006</v>
       </c>
       <c r="Q325" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R325" t="n">
-        <v>0</v>
+        <v>1.7000000000002</v>
       </c>
       <c r="S325" t="inlineStr">
         <is>
-          <t>FA19DF5C325AC4A000</t>
-        </is>
-      </c>
-      <c r="T325" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U325" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V325" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A68045E3E44A000</t>
+        </is>
+      </c>
+      <c r="T325" t="inlineStr"/>
+      <c r="U325" t="inlineStr"/>
+      <c r="V325" t="inlineStr"/>
       <c r="W325" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6824E007C4A000</t>
         </is>
       </c>
       <c r="X325" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y325" t="inlineStr">
         <is>
-          <t>mv :-6.20, mv_2m:0.52,      mv_5m : 0.40, mv_30m : -9.46, mv_60m: -13.75</t>
+          <t>mv :-16.08, mv_2m:1.15,      mv_5m : 3.74, mv_30m : -2.44, mv_60m: -1.05</t>
         </is>
       </c>
       <c r="Z325" t="inlineStr">
@@ -31497,102 +31019,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA325" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>700</v>
+        <v>4113</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="D326" s="2" t="n">
-        <v>45631.04790518525</v>
+        <v>45738.19040491898</v>
       </c>
       <c r="E326" t="n">
-        <v>1235.15</v>
+        <v>66.47</v>
       </c>
       <c r="F326" t="n">
-        <v>2470.3</v>
+        <v>2991.15</v>
       </c>
       <c r="G326" t="n">
-        <v>1.111</v>
+        <v>1.13</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I326" t="inlineStr"/>
+        <v>45738.24602238426</v>
+      </c>
+      <c r="I326" t="n">
+        <v>66.492</v>
+      </c>
       <c r="J326" t="n">
-        <v>0</v>
+        <v>2992.14</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L326" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O326" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P326" t="n">
         <v>1.006</v>
       </c>
       <c r="Q326" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R326" t="n">
-        <v>0</v>
+        <v>-1.240999999999763</v>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>FA19DF5CEB283B2000</t>
-        </is>
-      </c>
-      <c r="T326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A694DFFCF44A000</t>
+        </is>
+      </c>
+      <c r="T326" t="inlineStr"/>
+      <c r="U326" t="inlineStr"/>
+      <c r="V326" t="inlineStr"/>
       <c r="W326" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6950D64C84A000</t>
         </is>
       </c>
       <c r="X326" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y326" t="inlineStr">
         <is>
-          <t>mv :-5.74, mv_2m:1.23,      mv_5m : 2.06, mv_30m : -8.64, mv_60m: -12.28</t>
+          <t>mv :-7.46, mv_2m:0.44,      mv_5m : -1.47, mv_30m : -6.18, mv_60m: -2.60</t>
         </is>
       </c>
       <c r="Z326" t="inlineStr">
@@ -31600,102 +31108,88 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA326" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>701</v>
+        <v>4114</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="D327" s="2" t="n">
-        <v>45631.05004107516</v>
+        <v>45738.21178555556</v>
       </c>
       <c r="E327" t="n">
-        <v>1235.15</v>
+        <v>304.7721</v>
       </c>
       <c r="F327" t="n">
-        <v>2470.3</v>
+        <v>2742.9489</v>
       </c>
       <c r="G327" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H327" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I327" t="inlineStr"/>
+        <v>45741.02655521991</v>
+      </c>
+      <c r="I327" t="n">
+        <v>305.69</v>
+      </c>
       <c r="J327" t="n">
-        <v>0</v>
+        <v>2751.21</v>
       </c>
       <c r="K327" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L327" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N327" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O327" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P327" t="n">
-        <v>1.006</v>
+        <v>1.0065</v>
       </c>
       <c r="Q327" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="R327" t="n">
-        <v>0</v>
+        <v>6.13110000000017</v>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>FA19DF5D9F6544A000</t>
-        </is>
-      </c>
-      <c r="T327" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U327" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V327" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A69550BC97B2000</t>
+        </is>
+      </c>
+      <c r="T327" t="inlineStr"/>
+      <c r="U327" t="inlineStr"/>
+      <c r="V327" t="inlineStr"/>
       <c r="W327" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A696E78CC84A000</t>
         </is>
       </c>
       <c r="X327" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y327" t="inlineStr">
         <is>
-          <t>mv :-6.31, mv_2m:-0.38,      mv_5m : 0.92, mv_30m : -7.84, mv_60m: -13.99</t>
+          <t>mv :-9.02, mv_2m:-0.34,      mv_5m : -0.16, mv_30m : 10.16, mv_60m: 0.25</t>
         </is>
       </c>
       <c r="Z327" t="inlineStr">
@@ -31703,35 +31197,31 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA327" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>702</v>
+        <v>4115</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="D328" s="2" t="n">
-        <v>45631.05219529638</v>
+        <v>45741.14519493056</v>
       </c>
       <c r="E328" t="n">
-        <v>1235.15</v>
+        <v>291.59</v>
       </c>
       <c r="F328" t="n">
-        <v>2470.3</v>
+        <v>3207.49</v>
       </c>
       <c r="G328" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H328" s="2" t="n">
         <v>25934</v>
@@ -31744,61 +31234,53 @@
         <v>0</v>
       </c>
       <c r="L328" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N328" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O328" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P328" t="n">
         <v>1.006</v>
       </c>
       <c r="Q328" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R328" t="n">
         <v>0</v>
       </c>
       <c r="S328" t="inlineStr">
         <is>
-          <t>FA19DF5E55237B2000</t>
+          <t>FA1A6D1BDE37BB2000</t>
         </is>
       </c>
       <c r="T328" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U328" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V328" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6D1C31003B2000</t>
+        </is>
+      </c>
+      <c r="U328" t="inlineStr"/>
+      <c r="V328" t="inlineStr"/>
       <c r="W328" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6D1C9BDC44A000</t>
         </is>
       </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y328" t="inlineStr">
         <is>
-          <t>mv :-5.53, mv_2m:0.19,      mv_5m : -0.52, mv_30m : -9.62, mv_60m: -13.45</t>
+          <t>mv :-0.92, mv_2m:0.08,      mv_5m : 0.03, mv_30m : -0.05, mv_60m: 0.21</t>
         </is>
       </c>
       <c r="Z328" t="inlineStr">
@@ -31808,7 +31290,7 @@
       </c>
       <c r="AA328" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6D1C31CAC4A000</t>
         </is>
       </c>
     </row>
@@ -31817,91 +31299,85 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>703</v>
+        <v>4116</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="D329" s="2" t="n">
-        <v>45631.05436423551</v>
+        <v>45741.20273938657</v>
       </c>
       <c r="E329" t="n">
-        <v>1235.15</v>
+        <v>24.197</v>
       </c>
       <c r="F329" t="n">
-        <v>2470.3</v>
+        <v>3000.428</v>
       </c>
       <c r="G329" t="n">
-        <v>1.111</v>
+        <v>1.36</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I329" t="inlineStr"/>
+        <v>45741.83583892361</v>
+      </c>
+      <c r="I329" t="n">
+        <v>24.1</v>
+      </c>
       <c r="J329" t="n">
-        <v>0</v>
+        <v>2988.4</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L329" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O329" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P329" t="n">
         <v>1.006</v>
       </c>
       <c r="Q329" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R329" t="n">
-        <v>0</v>
+        <v>-14.84799999999979</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>FA19DF5F0C277B2000</t>
+          <t>FA1A6D2ED58A3B2000</t>
         </is>
       </c>
       <c r="T329" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U329" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V329" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6D2F102CBB2000</t>
+        </is>
+      </c>
+      <c r="U329" t="inlineStr"/>
+      <c r="V329" t="inlineStr"/>
       <c r="W329" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6D3F86DF04A000</t>
         </is>
       </c>
       <c r="X329" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y329" t="inlineStr">
         <is>
-          <t>mv :-4.96, mv_2m:0.80,      mv_5m : 0.64, mv_30m : -8.58, mv_60m: -11.52</t>
+          <t>mv :-5.16, mv_2m:0.03,      mv_5m : -0.11, mv_30m : -0.18, mv_60m: -3.92</t>
         </is>
       </c>
       <c r="Z329" t="inlineStr">
@@ -31911,7 +31387,7 @@
       </c>
       <c r="AA329" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6D2F10E984A000</t>
         </is>
       </c>
     </row>
@@ -31920,91 +31396,77 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>704</v>
+        <v>4119</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="D330" s="2" t="n">
-        <v>45631.0565152304</v>
+        <v>45742.19684638889</v>
       </c>
       <c r="E330" t="n">
-        <v>1235.15</v>
+        <v>299.5</v>
       </c>
       <c r="F330" t="n">
-        <v>2470.3</v>
-      </c>
-      <c r="G330" t="n">
-        <v>1.111</v>
-      </c>
+        <v>3294.5</v>
+      </c>
+      <c r="G330" t="inlineStr"/>
       <c r="H330" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I330" t="inlineStr"/>
+        <v>45751.03620291666</v>
+      </c>
+      <c r="I330" t="n">
+        <v>265.65</v>
+      </c>
       <c r="J330" t="n">
-        <v>0</v>
+        <v>2922.15</v>
       </c>
       <c r="K330" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L330" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>1.05</v>
+        <v>1.005</v>
       </c>
       <c r="O330" t="n">
-        <v>1.005</v>
+        <v>1.0001</v>
       </c>
       <c r="P330" t="n">
         <v>1.006</v>
       </c>
       <c r="Q330" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R330" t="n">
-        <v>0</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="R330" t="inlineStr"/>
       <c r="S330" t="inlineStr">
         <is>
-          <t>FA19DF5FC1A384A000</t>
-        </is>
-      </c>
-      <c r="T330" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U330" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V330" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6E767B017B2000</t>
+        </is>
+      </c>
+      <c r="T330" t="inlineStr"/>
+      <c r="U330" t="inlineStr"/>
+      <c r="V330" t="inlineStr"/>
       <c r="W330" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A79C8FBC244A000</t>
         </is>
       </c>
       <c r="X330" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="Y330" t="inlineStr">
         <is>
-          <t>mv :-6.46, mv_2m:0.63,      mv_5m : 0.50, mv_30m : -9.55, mv_60m: -13.88</t>
+          <t>mv :-31.71, mv_2m:0.40,      mv_5m : 1.20, mv_30m : -2.38, mv_60m: -3.82</t>
         </is>
       </c>
       <c r="Z330" t="inlineStr">
@@ -32012,102 +31474,92 @@
           <t>Сиднейское время (лето)</t>
         </is>
       </c>
-      <c r="AA330" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+      <c r="AA330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>705</v>
+        <v>4120</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="D331" s="2" t="n">
-        <v>45631.05872864091</v>
+        <v>45742.26677307871</v>
       </c>
       <c r="E331" t="n">
-        <v>1235.15</v>
+        <v>720.85</v>
       </c>
       <c r="F331" t="n">
-        <v>2470.3</v>
+        <v>2883.4</v>
       </c>
       <c r="G331" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I331" t="inlineStr"/>
+        <v>45743.07161030093</v>
+      </c>
+      <c r="I331" t="n">
+        <v>712.42</v>
+      </c>
       <c r="J331" t="n">
-        <v>0</v>
+        <v>2849.68</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N331" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O331" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P331" t="n">
         <v>1.006</v>
       </c>
       <c r="Q331" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R331" t="n">
-        <v>0</v>
+        <v>-35.82100000000025</v>
       </c>
       <c r="S331" t="inlineStr">
         <is>
-          <t>FA19DF607C6744A000</t>
+          <t>FA1A6E8D876284A000</t>
         </is>
       </c>
       <c r="T331" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U331" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V331" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6E8DD32D04A000</t>
+        </is>
+      </c>
+      <c r="U331" t="inlineStr"/>
+      <c r="V331" t="inlineStr"/>
       <c r="W331" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6E90522904A000</t>
         </is>
       </c>
       <c r="X331" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y331" t="inlineStr">
         <is>
-          <t>mv :-6.72, mv_2m:-0.31,      mv_5m : 0.21, mv_30m : -10.14, mv_60m: -15.09</t>
+          <t>mv :-37.17, mv_2m:-0.96,      mv_5m : -0.15, mv_30m : 4.66, mv_60m: -7.47</t>
         </is>
       </c>
       <c r="Z331" t="inlineStr">
@@ -32117,7 +31569,7 @@
       </c>
       <c r="AA331" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6E8DD3D884A000</t>
         </is>
       </c>
     </row>
@@ -32126,24 +31578,24 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>706</v>
+        <v>4121</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="D332" s="2" t="n">
-        <v>45631.06086183769</v>
+        <v>45743.09739583333</v>
       </c>
       <c r="E332" t="n">
-        <v>1235.15</v>
+        <v>152.134</v>
       </c>
       <c r="F332" t="n">
-        <v>2470.3</v>
+        <v>2738.412</v>
       </c>
       <c r="G332" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H332" s="2" t="n">
         <v>25934</v>
@@ -32156,7 +31608,7 @@
         <v>0</v>
       </c>
       <c r="L332" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="M332" t="inlineStr">
         <is>
@@ -32164,53 +31616,45 @@
         </is>
       </c>
       <c r="N332" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O332" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P332" t="n">
         <v>1.006</v>
       </c>
       <c r="Q332" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R332" t="n">
         <v>0</v>
       </c>
       <c r="S332" t="inlineStr">
         <is>
-          <t>FA19DF613062FB2000</t>
+          <t>FA1A6F9F4B8084A000</t>
         </is>
       </c>
       <c r="T332" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U332" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V332" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A6F9F948B3B2000</t>
+        </is>
+      </c>
+      <c r="U332" t="inlineStr"/>
+      <c r="V332" t="inlineStr"/>
       <c r="W332" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A70D08058BB2000</t>
         </is>
       </c>
       <c r="X332" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y332" t="inlineStr">
         <is>
-          <t>mv :-7.32, mv_2m:0.29,      mv_5m : 0.41, mv_30m : -8.73, mv_60m: -13.07</t>
+          <t>mv :-14.76, mv_2m:-1.45,      mv_5m : -2.00, mv_30m : -2.88, mv_60m: -3.09</t>
         </is>
       </c>
       <c r="Z332" t="inlineStr">
@@ -32220,7 +31664,7 @@
       </c>
       <c r="AA332" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6F9F9544C4A000</t>
         </is>
       </c>
     </row>
@@ -32229,93 +31673,79 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>707</v>
+        <v>4122</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D333" s="2" t="n">
-        <v>45631.06303468317</v>
+        <v>45743.09739583333</v>
       </c>
       <c r="E333" t="n">
-        <v>1216.99</v>
+        <v>72.235</v>
       </c>
       <c r="F333" t="n">
-        <v>2433.98</v>
+        <v>2744.93</v>
       </c>
       <c r="G333" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I333" t="inlineStr"/>
+        <v>45745.02083980324</v>
+      </c>
+      <c r="I333" t="n">
+        <v>71.6019</v>
+      </c>
       <c r="J333" t="n">
-        <v>0</v>
+        <v>2720.8722</v>
       </c>
       <c r="K333" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L333" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="M333" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N333" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O333" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P333" t="n">
         <v>1.006</v>
       </c>
       <c r="Q333" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R333" t="n">
-        <v>0</v>
+        <v>-26.34780000000005</v>
       </c>
       <c r="S333" t="inlineStr">
         <is>
-          <t>FA19DF61E7B8FB2000</t>
+          <t>FA1A71253C16FB2000</t>
         </is>
       </c>
       <c r="T333" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U333" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V333" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W333" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A7135DEE03B2000</t>
+        </is>
+      </c>
+      <c r="U333" t="inlineStr"/>
+      <c r="V333" t="inlineStr"/>
+      <c r="W333" t="inlineStr"/>
       <c r="X333" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
-        </is>
-      </c>
-      <c r="Y333" t="inlineStr">
-        <is>
-          <t>mv :-11.37, mv_2m:-2.55,      mv_5m : -3.63, mv_30m : -10.53, mv_60m: -13.52</t>
-        </is>
-      </c>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y333" t="inlineStr"/>
       <c r="Z333" t="inlineStr">
         <is>
           <t>Сиднейское время (лето)</t>
@@ -32323,7 +31753,7 @@
       </c>
       <c r="AA333" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A6F9F9544C4A000</t>
         </is>
       </c>
     </row>
@@ -32332,91 +31762,85 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>708</v>
+        <v>4123</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="D334" s="2" t="n">
-        <v>45631.06519448191</v>
+        <v>45745.1103808449</v>
       </c>
       <c r="E334" t="n">
-        <v>1215.19</v>
+        <v>89.48909999999999</v>
       </c>
       <c r="F334" t="n">
-        <v>2430.38</v>
+        <v>2774.1621</v>
       </c>
       <c r="G334" t="n">
-        <v>1.111</v>
+        <v>1.08</v>
       </c>
       <c r="H334" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I334" t="inlineStr"/>
+        <v>45745.32922364584</v>
+      </c>
+      <c r="I334" t="n">
+        <v>89.23099999999999</v>
+      </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>2766.161</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L334" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O334" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P334" t="n">
         <v>1.006</v>
       </c>
       <c r="Q334" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R334" t="n">
-        <v>0</v>
+        <v>-10.25109999999995</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>FA19DF629DF4BB2000</t>
+          <t>FA1A7236C0D3BB2000</t>
         </is>
       </c>
       <c r="T334" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U334" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V334" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A723701C184A000</t>
+        </is>
+      </c>
+      <c r="U334" t="inlineStr"/>
+      <c r="V334" t="inlineStr"/>
       <c r="W334" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A723A168F04A000</t>
         </is>
       </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA60_MA5</t>
         </is>
       </c>
       <c r="Y334" t="inlineStr">
         <is>
-          <t>mv :-9.54, mv_2m:4.04,      mv_5m : -3.74, mv_30m : -12.37, mv_60m: -20.90</t>
+          <t>mv :-20.66, mv_2m:-0.04,      mv_5m : 0.56, mv_30m : 12.41, mv_60m: 6.03, md_60m: 1</t>
         </is>
       </c>
       <c r="Z334" t="inlineStr">
@@ -32426,7 +31850,7 @@
       </c>
       <c r="AA334" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A72370281BB2000</t>
         </is>
       </c>
     </row>
@@ -32435,91 +31859,85 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>709</v>
+        <v>4125</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>AMGN</t>
         </is>
       </c>
       <c r="D335" s="2" t="n">
-        <v>45631.0673235354</v>
+        <v>45747.8922386574</v>
       </c>
       <c r="E335" t="n">
-        <v>1217.2</v>
+        <v>307.97</v>
       </c>
       <c r="F335" t="n">
-        <v>2434.4</v>
+        <v>2771.73</v>
       </c>
       <c r="G335" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I335" t="inlineStr"/>
+        <v>45748.06009032408</v>
+      </c>
+      <c r="I335" t="n">
+        <v>306.39</v>
+      </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>2757.51</v>
       </c>
       <c r="K335" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L335" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O335" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P335" t="n">
         <v>1.006</v>
       </c>
       <c r="Q335" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R335" t="n">
-        <v>0</v>
+        <v>-16.35000000000025</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>FA19DF63519B84A000</t>
+          <t>FA1A75CB9FFA44A000</t>
         </is>
       </c>
       <c r="T335" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U335" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V335" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A75CBF3BAFB2000</t>
+        </is>
+      </c>
+      <c r="U335" t="inlineStr"/>
+      <c r="V335" t="inlineStr"/>
       <c r="W335" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75E76A243B2000</t>
         </is>
       </c>
       <c r="X335" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y335" t="inlineStr">
         <is>
-          <t>mv :-13.59, mv_2m:-0.72,      mv_5m : 6.05, mv_30m : -7.08, mv_60m: -17.16</t>
+          <t>mv :-0.94, mv_2m:0.11,      mv_5m : -0.67, mv_30m : 3.43, mv_60m: 3.78, md_60m: 4</t>
         </is>
       </c>
       <c r="Z335" t="inlineStr">
@@ -32529,7 +31947,7 @@
       </c>
       <c r="AA335" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75CBF47344A000</t>
         </is>
       </c>
     </row>
@@ -32538,91 +31956,85 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>710</v>
+        <v>4126</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>MSI</t>
         </is>
       </c>
       <c r="D336" s="2" t="n">
-        <v>45631.0694780742</v>
+        <v>45748.02495070602</v>
       </c>
       <c r="E336" t="n">
-        <v>1220.27</v>
+        <v>434.1</v>
       </c>
       <c r="F336" t="n">
-        <v>2440.54</v>
+        <v>2604.6</v>
       </c>
       <c r="G336" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H336" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
+        <v>45748.06796524306</v>
+      </c>
+      <c r="I336" t="n">
+        <v>434.2</v>
+      </c>
       <c r="J336" t="n">
-        <v>0</v>
+        <v>2605.2</v>
       </c>
       <c r="K336" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L336" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O336" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P336" t="n">
         <v>1.006</v>
       </c>
       <c r="Q336" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R336" t="n">
-        <v>0</v>
+        <v>-1.500000000000091</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>FA19DF640766FB2000</t>
+          <t>FA1A75F75D867B2000</t>
         </is>
       </c>
       <c r="T336" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U336" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V336" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A75F79C60FB2000</t>
+        </is>
+      </c>
+      <c r="U336" t="inlineStr"/>
+      <c r="V336" t="inlineStr"/>
       <c r="W336" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75F808BA7B2000</t>
         </is>
       </c>
       <c r="X336" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y336" t="inlineStr">
         <is>
-          <t>mv :-15.30, mv_2m:-0.97,      mv_5m : -6.45, mv_30m : -13.17, mv_60m: -23.14</t>
+          <t>mv :-1.00, mv_2m:1.89,      mv_5m : 6.51, mv_30m : 12.03, mv_60m: 11.07, md_60m: 8</t>
         </is>
       </c>
       <c r="Z336" t="inlineStr">
@@ -32632,7 +32044,7 @@
       </c>
       <c r="AA336" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75F79D223B2000</t>
         </is>
       </c>
     </row>
@@ -32641,91 +32053,85 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>711</v>
+        <v>4127</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="D337" s="2" t="n">
-        <v>45631.07161595029</v>
+        <v>45748.02939939815</v>
       </c>
       <c r="E337" t="n">
-        <v>1223.35</v>
+        <v>522.4</v>
       </c>
       <c r="F337" t="n">
-        <v>2446.7</v>
+        <v>2612</v>
       </c>
       <c r="G337" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H337" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
+        <v>45748.08092768519</v>
+      </c>
+      <c r="I337" t="n">
+        <v>522.25</v>
+      </c>
       <c r="J337" t="n">
-        <v>0</v>
+        <v>2611.25</v>
       </c>
       <c r="K337" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L337" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O337" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P337" t="n">
         <v>1.006</v>
       </c>
       <c r="Q337" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R337" t="n">
-        <v>0</v>
+        <v>-2.85</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>FA19DF64BBC6BB2000</t>
+          <t>FA1A75F8D4EB04A000</t>
         </is>
       </c>
       <c r="T337" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U337" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V337" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A75F912A7C4A000</t>
+        </is>
+      </c>
+      <c r="U337" t="inlineStr"/>
+      <c r="V337" t="inlineStr"/>
       <c r="W337" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75FBE0FCC4A000</t>
         </is>
       </c>
       <c r="X337" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y337" t="inlineStr">
         <is>
-          <t>mv :-15.08, mv_2m:0.50,      mv_5m : -0.76, mv_30m : -9.43, mv_60m: -20.97</t>
+          <t>mv :-2.74, mv_2m:-1.74,      mv_5m : -2.12, mv_30m : -0.36, mv_60m: -0.47, md_60m: 0</t>
         </is>
       </c>
       <c r="Z337" t="inlineStr">
@@ -32735,7 +32141,7 @@
       </c>
       <c r="AA337" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A75F913697B2000</t>
         </is>
       </c>
     </row>
@@ -32744,48 +32150,50 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>712</v>
+        <v>4128</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="D338" s="2" t="n">
-        <v>45631.07374049007</v>
+        <v>45748.07487649305</v>
       </c>
       <c r="E338" t="n">
-        <v>1223.71</v>
+        <v>119.798</v>
       </c>
       <c r="F338" t="n">
-        <v>2447.42</v>
+        <v>2755.354</v>
       </c>
       <c r="G338" t="n">
-        <v>1.111</v>
+        <v>1.06</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>45750.37094396991</v>
+      </c>
+      <c r="I338" t="n">
+        <v>117.3</v>
+      </c>
       <c r="J338" t="n">
-        <v>0</v>
+        <v>2697.9</v>
       </c>
       <c r="K338" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="L338" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N338" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O338" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P338" t="n">
         <v>1.006</v>
@@ -32794,41 +32202,29 @@
         <v>0.45</v>
       </c>
       <c r="R338" t="n">
-        <v>0</v>
+        <v>-59.66399999999972</v>
       </c>
       <c r="S338" t="inlineStr">
         <is>
-          <t>FA19DF656F0C84A000</t>
+          <t>FA1A7607D2003B2000</t>
         </is>
       </c>
       <c r="T338" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U338" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V338" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W338" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A76081A2CBB2000</t>
+        </is>
+      </c>
+      <c r="U338" t="inlineStr"/>
+      <c r="V338" t="inlineStr"/>
+      <c r="W338" t="inlineStr"/>
       <c r="X338" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y338" t="inlineStr">
         <is>
-          <t>mv :-14.64, mv_2m:0.46,      mv_5m : -0.55, mv_30m : -10.97, mv_60m: -20.65</t>
+          <t>mv :-0.93, mv_2m:0.07,      mv_5m : 0.10, mv_30m : 0.23, mv_60m: 1.21, md_60m: 1</t>
         </is>
       </c>
       <c r="Z338" t="inlineStr">
@@ -32838,7 +32234,7 @@
       </c>
       <c r="AA338" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A76081ADC84A000</t>
         </is>
       </c>
     </row>
@@ -32847,91 +32243,85 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>713</v>
+        <v>4129</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="D339" s="2" t="n">
-        <v>45631.07591804575</v>
+        <v>45750.43181418982</v>
       </c>
       <c r="E339" t="n">
-        <v>1223.58</v>
+        <v>93.39</v>
       </c>
       <c r="F339" t="n">
-        <v>2447.16</v>
+        <v>840.51</v>
       </c>
       <c r="G339" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H339" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>45751.05976002315</v>
+      </c>
+      <c r="I339" t="n">
+        <v>96</v>
+      </c>
       <c r="J339" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="K339" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L339" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M339" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N339" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O339" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P339" t="n">
         <v>1.006</v>
       </c>
       <c r="Q339" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R339" t="n">
-        <v>0</v>
+        <v>21.42000000000001</v>
       </c>
       <c r="S339" t="inlineStr">
         <is>
-          <t>FA19DF6626C3FB2000</t>
+          <t>FA1A7910A4B2C4A000</t>
         </is>
       </c>
       <c r="T339" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U339" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V339" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A79112F4044A000</t>
+        </is>
+      </c>
+      <c r="U339" t="inlineStr"/>
+      <c r="V339" t="inlineStr"/>
       <c r="W339" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A7987FF0F7B2000</t>
         </is>
       </c>
       <c r="X339" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y339" t="inlineStr">
         <is>
-          <t>mv :-12.34, mv_2m:2.00,      mv_5m : 2.84, mv_30m : -8.63, mv_60m: -20.00</t>
+          <t>mv :-1.00, mv_2m:0.00,      mv_5m : 0.39, mv_30m : -1.68, mv_60m: -7.57, md_60m: -1</t>
         </is>
       </c>
       <c r="Z339" t="inlineStr">
@@ -32941,7 +32331,7 @@
       </c>
       <c r="AA339" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A79112FFCFB2000</t>
         </is>
       </c>
     </row>
@@ -32950,48 +32340,50 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>714</v>
+        <v>4130</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D340" s="2" t="n">
-        <v>45631.07799568826</v>
+        <v>45756.02034188657</v>
       </c>
       <c r="E340" t="n">
-        <v>1223.58</v>
+        <v>287.12</v>
       </c>
       <c r="F340" t="n">
-        <v>2447.16</v>
+        <v>861.36</v>
       </c>
       <c r="G340" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
+        <v>45756.08990780092</v>
+      </c>
+      <c r="I340" t="n">
+        <v>281.13</v>
+      </c>
       <c r="J340" t="n">
-        <v>0</v>
+        <v>843.39</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L340" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M340" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N340" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O340" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P340" t="n">
         <v>1.006</v>
@@ -33000,51 +32392,39 @@
         <v>0.45</v>
       </c>
       <c r="R340" t="n">
-        <v>0</v>
+        <v>-20.00000000000003</v>
       </c>
       <c r="S340" t="inlineStr">
         <is>
-          <t>FA19DF66D612C4A000</t>
+          <t>FA1A80504C4044A000</t>
         </is>
       </c>
       <c r="T340" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U340" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V340" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W340" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A80508ECC3B2000</t>
+        </is>
+      </c>
+      <c r="U340" t="inlineStr"/>
+      <c r="V340" t="inlineStr"/>
+      <c r="W340" t="inlineStr"/>
       <c r="X340" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y340" t="inlineStr">
         <is>
-          <t>mv :-11.56, mv_2m:1.84,      mv_5m : 0.41, mv_30m : -10.02, mv_60m: -19.49</t>
+          <t>mv :0.19, mv_2m:1.19,      mv_5m : 2.45, mv_30m : 3.30, mv_60m: 1.06, md_60m: -2</t>
         </is>
       </c>
       <c r="Z340" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
+          <t>Сиднейское время (зима)</t>
         </is>
       </c>
       <c r="AA340" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A80508F517B2000</t>
         </is>
       </c>
     </row>
@@ -33053,101 +32433,95 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>715</v>
+        <v>4131</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="D341" s="2" t="n">
-        <v>45631.08013153777</v>
+        <v>45757.10832126158</v>
       </c>
       <c r="E341" t="n">
-        <v>1223.58</v>
+        <v>316.83</v>
       </c>
       <c r="F341" t="n">
-        <v>2447.16</v>
+        <v>950.49</v>
       </c>
       <c r="G341" t="n">
-        <v>1.111</v>
+        <v>1</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
+        <v>45757.16757591435</v>
+      </c>
+      <c r="I341" t="n">
+        <v>321.09</v>
+      </c>
       <c r="J341" t="n">
-        <v>0</v>
+        <v>963.27</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L341" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M341" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N341" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O341" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P341" t="n">
         <v>1.006</v>
       </c>
       <c r="Q341" t="n">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="R341" t="n">
-        <v>0</v>
+        <v>10.67899999999997</v>
       </c>
       <c r="S341" t="inlineStr">
         <is>
-          <t>FA19DF678A48FB2000</t>
+          <t>FA1A81B6E2A004A000</t>
         </is>
       </c>
       <c r="T341" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U341" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V341" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A81B72366BB2000</t>
+        </is>
+      </c>
+      <c r="U341" t="inlineStr"/>
+      <c r="V341" t="inlineStr"/>
       <c r="W341" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A81BA788FC4A000</t>
         </is>
       </c>
       <c r="X341" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y341" t="inlineStr">
         <is>
-          <t>mv :-12.95, mv_2m:-0.33,      mv_5m : 0.06, mv_30m : -8.78, mv_60m: -17.46</t>
+          <t>mv :-0.88, mv_2m:0.12,      mv_5m : 0.53, mv_30m : 1.89, mv_60m: 1.32, md_60m: 1</t>
         </is>
       </c>
       <c r="Z341" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
+          <t>Сиднейское время (зима)</t>
         </is>
       </c>
       <c r="AA341" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A81B723E9FB2000</t>
         </is>
       </c>
     </row>
@@ -33156,101 +32530,95 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>716</v>
+        <v>4132</v>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>T</t>
         </is>
       </c>
       <c r="D342" s="2" t="n">
-        <v>45631.08224556113</v>
+        <v>45757.29387263889</v>
       </c>
       <c r="E342" t="n">
-        <v>1223.58</v>
+        <v>26.4893</v>
       </c>
       <c r="F342" t="n">
-        <v>2447.16</v>
+        <v>980.1041</v>
       </c>
       <c r="G342" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="H342" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
+        <v>45757.78987079861</v>
+      </c>
+      <c r="I342" t="n">
+        <v>26.25</v>
+      </c>
       <c r="J342" t="n">
-        <v>0</v>
+        <v>971.25</v>
       </c>
       <c r="K342" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="L342" t="n">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="M342" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N342" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O342" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P342" t="n">
         <v>1.006</v>
       </c>
       <c r="Q342" t="n">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="R342" t="n">
-        <v>0</v>
+        <v>-11.09410000000002</v>
       </c>
       <c r="S342" t="inlineStr">
         <is>
-          <t>FA19DF683CB27B2000</t>
+          <t>FA1A81F40A78C4A000</t>
         </is>
       </c>
       <c r="T342" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U342" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V342" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>FA1A81F461E004A000</t>
+        </is>
+      </c>
+      <c r="U342" t="inlineStr"/>
+      <c r="V342" t="inlineStr"/>
       <c r="W342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A81F4642904A000</t>
         </is>
       </c>
       <c r="X342" t="inlineStr">
         <is>
-          <t>before_market_open_2</t>
+          <t>MA50_MA5</t>
         </is>
       </c>
       <c r="Y342" t="inlineStr">
         <is>
-          <t>mv :-13.85, mv_2m:-0.45,      mv_5m : -1.34, mv_30m : -9.57, mv_60m: -22.82</t>
+          <t>mv :-0.77, mv_2m:0.23,      mv_5m : -1.43, mv_30m : -7.09, mv_60m: -5.48, md_60m: -4</t>
         </is>
       </c>
       <c r="Z342" t="inlineStr">
         <is>
-          <t>Сиднейское время (лето)</t>
+          <t>Сиднейское время (зима)</t>
         </is>
       </c>
       <c r="AA342" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>FA1A81F4626304A000</t>
         </is>
       </c>
     </row>
@@ -33259,101 +32627,1728 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>717</v>
+        <v>4133</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="D343" s="2" t="n">
-        <v>45631.08435159038</v>
+        <v>45758.34461401621</v>
       </c>
       <c r="E343" t="n">
-        <v>1223.58</v>
+        <v>35.81814814814815</v>
       </c>
       <c r="F343" t="n">
-        <v>2447.16</v>
-      </c>
-      <c r="G343" t="n">
-        <v>1.111</v>
-      </c>
+        <v>967.0899999999999</v>
+      </c>
+      <c r="G343" t="inlineStr"/>
       <c r="H343" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
+        <v>45758.78998167824</v>
+      </c>
+      <c r="I343" t="n">
+        <v>35.93</v>
+      </c>
       <c r="J343" t="n">
-        <v>0</v>
+        <v>970.11</v>
       </c>
       <c r="K343" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L343" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N343" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="O343" t="n">
-        <v>1.005</v>
+        <v>0.98</v>
       </c>
       <c r="P343" t="n">
         <v>1.006</v>
       </c>
       <c r="Q343" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R343" t="inlineStr"/>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>FA1A834E5ACEFB2000</t>
+        </is>
+      </c>
+      <c r="T343" t="inlineStr">
+        <is>
+          <t>FA1A834E962EBB2000</t>
+        </is>
+      </c>
+      <c r="U343" t="inlineStr"/>
+      <c r="V343" t="inlineStr"/>
+      <c r="W343" t="inlineStr">
+        <is>
+          <t>FA1A83515F25BB2000</t>
+        </is>
+      </c>
+      <c r="X343" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y343" t="inlineStr">
+        <is>
+          <t>mv :-0.95, mv_2m:-1.21,      mv_5m : -1.23, mv_30m : 6.52, mv_60m: 2.83, md_60m: -3</t>
+        </is>
+      </c>
+      <c r="Z343" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA343" t="inlineStr">
+        <is>
+          <t>FA1A834E96B284A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>4135</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>45761.89916496527</v>
+      </c>
+      <c r="E344" t="n">
+        <v>63.49</v>
+      </c>
+      <c r="F344" t="n">
+        <v>952.35</v>
+      </c>
+      <c r="G344" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H344" s="2" t="n">
+        <v>45762.01938324074</v>
+      </c>
+      <c r="I344" t="n">
+        <v>62.85</v>
+      </c>
+      <c r="J344" t="n">
+        <v>942.75</v>
+      </c>
+      <c r="K344" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L344" t="n">
+        <v>15</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O344" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P344" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q344" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R344" t="n">
+        <v>-11.72000000000002</v>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>FA1A87E1E60884A000</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>FA1A87E253C47B2000</t>
+        </is>
+      </c>
+      <c r="U344" t="inlineStr"/>
+      <c r="V344" t="inlineStr"/>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>FA1A87E8A91504A000</t>
+        </is>
+      </c>
+      <c r="X344" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y344" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.39,      mv_5m : 0.32, mv_30m : 2.81, mv_60m: 3.00, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z344" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>FA1A87E2543FFB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>4137</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>45761.92484070601</v>
+      </c>
+      <c r="E345" t="n">
+        <v>115.85</v>
+      </c>
+      <c r="F345" t="n">
+        <v>926.8</v>
+      </c>
+      <c r="G345" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H345" s="2" t="n">
+        <v>45762.01883856481</v>
+      </c>
+      <c r="I345" t="n">
+        <v>115.805</v>
+      </c>
+      <c r="J345" t="n">
+        <v>926.4400000000001</v>
+      </c>
+      <c r="K345" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L345" t="n">
+        <v>8</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O345" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P345" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q345" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R345" t="n">
+        <v>-2.4299999999999</v>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>FA1A87EA5C7084A000</t>
+        </is>
+      </c>
+      <c r="T345" t="inlineStr">
+        <is>
+          <t>FA1A87F8A10344A000</t>
+        </is>
+      </c>
+      <c r="U345" t="inlineStr"/>
+      <c r="V345" t="inlineStr"/>
+      <c r="W345" t="inlineStr">
+        <is>
+          <t>FA1A87FBD50AC4A000</t>
+        </is>
+      </c>
+      <c r="X345" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y345" t="inlineStr">
+        <is>
+          <t>mv :6.66, mv_2m:2.86,      mv_5m : 4.46, mv_30m : -1.16, mv_60m: 0.44, md_60m: 0</t>
+        </is>
+      </c>
+      <c r="Z345" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA345" t="inlineStr">
+        <is>
+          <t>FA1A87F8A180C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>4138</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D346" s="2" t="n">
+        <v>45761.92555357639</v>
+      </c>
+      <c r="E346" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="F346" t="n">
+        <v>952.5599999999999</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H346" s="2" t="n">
+        <v>45762.01817681713</v>
+      </c>
+      <c r="I346" t="n">
+        <v>79.86499999999999</v>
+      </c>
+      <c r="J346" t="n">
+        <v>958.3799999999999</v>
+      </c>
+      <c r="K346" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L346" t="n">
+        <v>12</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N346" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O346" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P346" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q346" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R346" t="n">
+        <v>3.719999999999936</v>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>FA1A87EA9897C4A000</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0F463B2000</t>
+        </is>
+      </c>
+      <c r="U346" t="inlineStr"/>
+      <c r="V346" t="inlineStr"/>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>FA1A87EB683AC4A000</t>
+        </is>
+      </c>
+      <c r="X346" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y346" t="inlineStr">
+        <is>
+          <t>mv :6.91, mv_2m:3.01,      mv_5m : 5.57, mv_30m : -0.12, mv_60m: 2.57, md_60m: 2</t>
+        </is>
+      </c>
+      <c r="Z346" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0FC984A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>4139</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="D347" s="2" t="n">
+        <v>45762.03856059028</v>
+      </c>
+      <c r="E347" t="n">
+        <v>39.936</v>
+      </c>
+      <c r="F347" t="n">
+        <v>998.4</v>
+      </c>
+      <c r="G347" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H347" s="2" t="n">
+        <v>45762.099524375</v>
+      </c>
+      <c r="I347" t="n">
+        <v>39.11</v>
+      </c>
+      <c r="J347" t="n">
+        <v>977.75</v>
+      </c>
+      <c r="K347" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L347" t="n">
+        <v>25</v>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O347" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P347" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q347" t="n">
         <v>0.45</v>
       </c>
-      <c r="R343" t="n">
+      <c r="R347" t="n">
+        <v>-22.85999999999998</v>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>FA1A880FD79004A000</t>
+        </is>
+      </c>
+      <c r="T347" t="inlineStr">
+        <is>
+          <t>FA1A8810408384A000</t>
+        </is>
+      </c>
+      <c r="U347" t="inlineStr"/>
+      <c r="V347" t="inlineStr"/>
+      <c r="W347" t="inlineStr"/>
+      <c r="X347" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y347" t="inlineStr">
+        <is>
+          <t>mv :-0.68, mv_2m:0.32,      mv_5m : 0.59, mv_30m : 1.45, mv_60m: 1.20, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z347" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA347" t="inlineStr">
+        <is>
+          <t>FA1A8810410804A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>4140</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>TFC</t>
+        </is>
+      </c>
+      <c r="D348" s="2" t="n">
+        <v>45762.12632922453</v>
+      </c>
+      <c r="E348" t="n">
+        <v>36.1779</v>
+      </c>
+      <c r="F348" t="n">
+        <v>976.8033</v>
+      </c>
+      <c r="G348" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H348" s="2" t="n">
+        <v>45762.21419508102</v>
+      </c>
+      <c r="I348" t="n">
+        <v>36.2018</v>
+      </c>
+      <c r="J348" t="n">
+        <v>977.4485999999999</v>
+      </c>
+      <c r="K348" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L348" t="n">
+        <v>27</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N348" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O348" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P348" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q348" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R348" t="n">
+        <v>-1.534700000000094</v>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>FA1A882CC504C4A000</t>
+        </is>
+      </c>
+      <c r="T348" t="inlineStr">
+        <is>
+          <t>FA1A882D12E13B2000</t>
+        </is>
+      </c>
+      <c r="U348" t="inlineStr"/>
+      <c r="V348" t="inlineStr"/>
+      <c r="W348" t="inlineStr">
+        <is>
+          <t>FA1A882F6F9B7B2000</t>
+        </is>
+      </c>
+      <c r="X348" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y348" t="inlineStr">
+        <is>
+          <t>mv :0.62, mv_2m:1.62,      mv_5m : 1.58, mv_30m : 1.78, mv_60m: 1.48, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z348" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA348" t="inlineStr">
+        <is>
+          <t>FA1A882D135BFB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>4141</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D349" s="2" t="n">
+        <v>45762.12896179398</v>
+      </c>
+      <c r="E349" t="n">
+        <v>34.1099</v>
+      </c>
+      <c r="F349" t="n">
+        <v>989.1871000000001</v>
+      </c>
+      <c r="G349" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H349" s="2" t="n">
+        <v>45762.28196479167</v>
+      </c>
+      <c r="I349" t="n">
+        <v>34.2803</v>
+      </c>
+      <c r="J349" t="n">
+        <v>994.1286999999999</v>
+      </c>
+      <c r="K349" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L349" t="n">
+        <v>29</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N349" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O349" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P349" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q349" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R349" t="n">
+        <v>2.741599999999766</v>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>FA1A882DA32584A000</t>
+        </is>
+      </c>
+      <c r="T349" t="inlineStr">
+        <is>
+          <t>FA1A882DEFAB44A000</t>
+        </is>
+      </c>
+      <c r="U349" t="inlineStr"/>
+      <c r="V349" t="inlineStr"/>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>FA1A882FA0EF04A000</t>
+        </is>
+      </c>
+      <c r="X349" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y349" t="inlineStr">
+        <is>
+          <t>mv :-1.55, mv_2m:0.89,      mv_5m : -1.69, mv_30m : 0.56, mv_60m: 4.01, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z349" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA349" t="inlineStr">
+        <is>
+          <t>FA1A882DF02B3B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>4142</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="D350" s="2" t="n">
+        <v>45762.18763444445</v>
+      </c>
+      <c r="E350" t="n">
+        <v>51.1772</v>
+      </c>
+      <c r="F350" t="n">
+        <v>972.3668</v>
+      </c>
+      <c r="G350" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H350" s="2" t="n">
+        <v>45762.28271696759</v>
+      </c>
+      <c r="I350" t="n">
+        <v>51.3809</v>
+      </c>
+      <c r="J350" t="n">
+        <v>976.2370999999999</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L350" t="n">
+        <v>19</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N350" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O350" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P350" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q350" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="R350" t="n">
+        <v>1.730299999999929</v>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>FA1A8840F9A144A000</t>
+        </is>
+      </c>
+      <c r="T350" t="inlineStr">
+        <is>
+          <t>FA1A88416209FB2000</t>
+        </is>
+      </c>
+      <c r="U350" t="inlineStr"/>
+      <c r="V350" t="inlineStr"/>
+      <c r="W350" t="inlineStr">
+        <is>
+          <t>FA1A884163FEFB2000</t>
+        </is>
+      </c>
+      <c r="X350" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y350" t="inlineStr">
+        <is>
+          <t>mv :-1.15, mv_2m:-0.15,      mv_5m : 0.09, mv_30m : 1.07, mv_60m: 1.46, md_60m: 3</t>
+        </is>
+      </c>
+      <c r="Z350" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA350" t="inlineStr">
+        <is>
+          <t>FA1A8841628F04A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4143</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D351" s="2" t="n">
+        <v>45762.18825421296</v>
+      </c>
+      <c r="E351" t="n">
+        <v>63.65</v>
+      </c>
+      <c r="F351" t="n">
+        <v>954.75</v>
+      </c>
+      <c r="G351" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H351" s="2" t="n">
+        <v>45762.2660058912</v>
+      </c>
+      <c r="I351" t="n">
+        <v>63.6413</v>
+      </c>
+      <c r="J351" t="n">
+        <v>954.6195</v>
+      </c>
+      <c r="K351" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L351" t="n">
+        <v>15</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N351" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O351" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P351" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q351" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R351" t="n">
+        <v>-2.271499999999984</v>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>FA1A88412DEAC4A000</t>
+        </is>
+      </c>
+      <c r="T351" t="inlineStr">
+        <is>
+          <t>FA1A8841954704A000</t>
+        </is>
+      </c>
+      <c r="U351" t="inlineStr"/>
+      <c r="V351" t="inlineStr"/>
+      <c r="W351" t="inlineStr">
+        <is>
+          <t>FA1A884309063B2000</t>
+        </is>
+      </c>
+      <c r="X351" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y351" t="inlineStr">
+        <is>
+          <t>mv :-1.04, mv_2m:-0.04,      mv_5m : 0.21, mv_30m : 0.39, mv_60m: 1.01, md_60m: 3</t>
+        </is>
+      </c>
+      <c r="Z351" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA351" t="inlineStr">
+        <is>
+          <t>FA1A884195C5C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>4144</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D352" s="2" t="n">
+        <v>45763.02245784722</v>
+      </c>
+      <c r="E352" t="n">
+        <v>85.40000000000001</v>
+      </c>
+      <c r="F352" t="n">
+        <v>939.4000000000001</v>
+      </c>
+      <c r="G352" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H352" s="2" t="n">
+        <v>45763.07108331018</v>
+      </c>
+      <c r="I352" t="n">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="J352" t="n">
+        <v>937.64</v>
+      </c>
+      <c r="K352" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L352" t="n">
+        <v>11</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O352" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P352" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q352" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R352" t="n">
+        <v>-3.840000000000105</v>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>FA1A89541FDB44A000</t>
+        </is>
+      </c>
+      <c r="T352" t="inlineStr">
+        <is>
+          <t>FA1A89546CCFBB2000</t>
+        </is>
+      </c>
+      <c r="U352" t="inlineStr"/>
+      <c r="V352" t="inlineStr"/>
+      <c r="W352" t="inlineStr">
+        <is>
+          <t>FA1A895497FC84A000</t>
+        </is>
+      </c>
+      <c r="X352" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y352" t="inlineStr">
+        <is>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.83, mv_30m : -0.76, mv_60m: -0.15, md_60m: -1</t>
+        </is>
+      </c>
+      <c r="Z352" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA352" t="inlineStr">
+        <is>
+          <t>FA1A89546D4BBB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>4145</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="D353" s="2" t="n">
+        <v>45763.10221366898</v>
+      </c>
+      <c r="E353" t="n">
+        <v>223.6461</v>
+      </c>
+      <c r="F353" t="n">
+        <v>894.5844</v>
+      </c>
+      <c r="G353" t="n">
+        <v>1</v>
+      </c>
+      <c r="H353" s="2" t="n">
+        <v>45763.91211696759</v>
+      </c>
+      <c r="I353" t="n">
+        <v>219.39</v>
+      </c>
+      <c r="J353" t="n">
+        <v>877.5599999999999</v>
+      </c>
+      <c r="K353" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L353" t="n">
+        <v>4</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N353" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O353" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P353" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q353" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R353" t="n">
+        <v>-19.05440000000002</v>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>FA1A896E694D3B2000</t>
+        </is>
+      </c>
+      <c r="T353" t="inlineStr">
+        <is>
+          <t>FA1A896EB49944A000</t>
+        </is>
+      </c>
+      <c r="U353" t="inlineStr"/>
+      <c r="V353" t="inlineStr"/>
+      <c r="W353" t="inlineStr">
+        <is>
+          <t>FA1A89BC36F2BB2000</t>
+        </is>
+      </c>
+      <c r="X353" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y353" t="inlineStr">
+        <is>
+          <t>mv :-0.77, mv_2m:0.23,      mv_5m : 0.79, mv_30m : 0.85, mv_60m: 0.98, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z353" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA353" t="inlineStr">
+        <is>
+          <t>FA1A896EB515BB2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4146</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="D354" s="2" t="n">
+        <v>45763.23008152778</v>
+      </c>
+      <c r="E354" t="n">
+        <v>329.6</v>
+      </c>
+      <c r="F354" t="n">
+        <v>988.8000000000001</v>
+      </c>
+      <c r="G354" t="n">
+        <v>1</v>
+      </c>
+      <c r="H354" s="2" t="n">
+        <v>45764.02043048611</v>
+      </c>
+      <c r="I354" t="n">
+        <v>331.72</v>
+      </c>
+      <c r="J354" t="n">
+        <v>995.1600000000001</v>
+      </c>
+      <c r="K354" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L354" t="n">
+        <v>3</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N354" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O354" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P354" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q354" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R354" t="n">
+        <v>4.320000000000014</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>FA1A89988E2504A000</t>
+        </is>
+      </c>
+      <c r="T354" t="inlineStr">
+        <is>
+          <t>FA1A8998E492C4A000</t>
+        </is>
+      </c>
+      <c r="U354" t="inlineStr"/>
+      <c r="V354" t="inlineStr"/>
+      <c r="W354" t="inlineStr">
+        <is>
+          <t>FA1A8999787E7B2000</t>
+        </is>
+      </c>
+      <c r="X354" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y354" t="inlineStr">
+        <is>
+          <t>mv :-1.21, mv_2m:-0.21,      mv_5m : -0.02, mv_30m : 1.16, mv_60m: 2.44, md_60m: 4</t>
+        </is>
+      </c>
+      <c r="Z354" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA354" t="inlineStr">
+        <is>
+          <t>FA1A8998E5107B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="D355" s="2" t="n">
+        <v>45764.04038259259</v>
+      </c>
+      <c r="E355" t="n">
+        <v>69.64</v>
+      </c>
+      <c r="F355" t="n">
+        <v>974.96</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H355" s="2" t="n">
+        <v>45764.14553491898</v>
+      </c>
+      <c r="I355" t="n">
+        <v>68.9207</v>
+      </c>
+      <c r="J355" t="n">
+        <v>964.8897999999999</v>
+      </c>
+      <c r="K355" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L355" t="n">
+        <v>14</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N355" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O355" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P355" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q355" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R355" t="n">
+        <v>-12.17020000000011</v>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>FA1A8AA39F49BB2000</t>
+        </is>
+      </c>
+      <c r="T355" t="inlineStr">
+        <is>
+          <t>FA1A8AA402EA84A000</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr"/>
+      <c r="V355" t="inlineStr"/>
+      <c r="W355" t="inlineStr">
+        <is>
+          <t>FA1A8AA404CE84A000</t>
+        </is>
+      </c>
+      <c r="X355" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y355" t="inlineStr">
+        <is>
+          <t>mv :-3.89, mv_2m:-2.89,      mv_5m : -6.04, mv_30m : 9.32, mv_60m: 20.09, md_60m: -2</t>
+        </is>
+      </c>
+      <c r="Z355" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA355" t="inlineStr">
+        <is>
+          <t>FA1A8AA4037244A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>4148</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>ZTS</t>
+        </is>
+      </c>
+      <c r="D356" s="2" t="n">
+        <v>45765.10470579861</v>
+      </c>
+      <c r="E356" t="n">
+        <v>149.3</v>
+      </c>
+      <c r="F356" t="n">
+        <v>895.8000000000001</v>
+      </c>
+      <c r="G356" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H356" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
         <v>0</v>
       </c>
-      <c r="S343" t="inlineStr">
-        <is>
-          <t>FA19DF68EE5AFB2000</t>
-        </is>
-      </c>
-      <c r="T343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="U343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="V343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="W343" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="X343" t="inlineStr">
-        <is>
-          <t>before_market_open_2</t>
-        </is>
-      </c>
-      <c r="Y343" t="inlineStr">
-        <is>
-          <t>mv :-14.06, mv_2m:0.48,      mv_5m : -1.34, mv_30m : -6.21, mv_60m: -21.94</t>
-        </is>
-      </c>
-      <c r="Z343" t="inlineStr">
-        <is>
-          <t>Сиднейское время (лето)</t>
-        </is>
-      </c>
-      <c r="AA343" t="inlineStr">
-        <is>
-          <t>None</t>
+      <c r="K356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L356" t="n">
+        <v>6</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N356" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O356" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P356" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q356" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R356" t="n">
+        <v>0</v>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>FA1A8C02699884A000</t>
+        </is>
+      </c>
+      <c r="T356" t="inlineStr">
+        <is>
+          <t>FA1A8C02FB5484A000</t>
+        </is>
+      </c>
+      <c r="U356" t="inlineStr"/>
+      <c r="V356" t="inlineStr"/>
+      <c r="W356" t="inlineStr">
+        <is>
+          <t>FA1A8C03A37BBB2000</t>
+        </is>
+      </c>
+      <c r="X356" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y356" t="inlineStr">
+        <is>
+          <t>mv :-0.72, mv_2m:0.28,      mv_5m : 0.60, mv_30m : 2.88, mv_60m: 2.66, md_60m: 3</t>
+        </is>
+      </c>
+      <c r="Z356" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA356" t="inlineStr">
+        <is>
+          <t>FA1A8C02FBE27B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>45765.10794478009</v>
+      </c>
+      <c r="E357" t="n">
+        <v>209.38</v>
+      </c>
+      <c r="F357" t="n">
+        <v>837.52</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>45768.81413601852</v>
+      </c>
+      <c r="I357" t="n">
+        <v>206.45</v>
+      </c>
+      <c r="J357" t="n">
+        <v>825.8</v>
+      </c>
+      <c r="K357" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L357" t="n">
+        <v>4</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P357" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R357" t="n">
+        <v>-13.75000000000003</v>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>FA1A8C037ADD7B2000</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>FA1A8C0449A504A000</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>FA1A8C07753704A000</t>
+        </is>
+      </c>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>mv :2.62, mv_2m:3.62,      mv_5m : 4.77, mv_30m : 55.80, mv_60m: 42.14, md_60m: 35</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA357" t="inlineStr">
+        <is>
+          <t>FA1A8C044A3244A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>45765.16071565972</v>
+      </c>
+      <c r="E358" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="F358" t="n">
+        <v>940.61</v>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" s="2" t="n">
+        <v>45763.07108331018</v>
+      </c>
+      <c r="I358" t="n">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="J358" t="n">
+        <v>937.64</v>
+      </c>
+      <c r="K358" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L358" t="n">
+        <v>11</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N358" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P358" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>FA1A8C14DF65BB2000</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F233B2000</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr"/>
+      <c r="V358" t="inlineStr"/>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>FA1A8C180C0AC4A000</t>
+        </is>
+      </c>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.32, mv_30m : 3.17, mv_60m: 0.79, md_60m: -9</t>
+        </is>
+      </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F9D84A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>45765.1879058912</v>
+      </c>
+      <c r="E359" t="n">
+        <v>55.8682</v>
+      </c>
+      <c r="F359" t="n">
+        <v>949.7594</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>17</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P359" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>FA1A8C1DD58F7B2000</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3B94FB2000</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>FA1A8C221FF604A000</t>
+        </is>
+      </c>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y359" t="inlineStr">
+        <is>
+          <t>mv :-1.27, mv_2m:-0.27,      mv_5m : -3.30, mv_30m : 5.17, mv_60m: 21.15, md_60m: 25</t>
+        </is>
+      </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3C0F7B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4152</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>45765.18801103009</v>
+      </c>
+      <c r="E360" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="F360" t="n">
+        <v>995.04</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>45765.30762502315</v>
+      </c>
+      <c r="I360" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J360" t="n">
+        <v>987.5999999999999</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L360" t="n">
+        <v>12</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P360" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R360" t="n">
+        <v>-9.540000000000054</v>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>FA1A8C1DDE6DBB2000</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3D8744A000</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr"/>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3F42BB2000</t>
+        </is>
+      </c>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y360" t="inlineStr">
+        <is>
+          <t>mv :-1.33, mv_2m:-0.33,      mv_5m : -3.88, mv_30m : 4.85, mv_60m: 22.96, md_60m: 27</t>
+        </is>
+      </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3E08BB2000</t>
         </is>
       </c>
     </row>
